--- a/TP_Final/TEXTO/Rating.xlsx
+++ b/TP_Final/TEXTO/Rating.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bakaneko\Facultad\Materias\Circuitos Electrónicos II\TPS\REPO-TPS\Circuitos-2\TP_Final\TEXTO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="11715" windowHeight="6210" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="11715" windowHeight="6210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Transistores" sheetId="1" r:id="rId1"/>
     <sheet name="Capacitores" sheetId="2" r:id="rId2"/>
     <sheet name="Diodos" sheetId="3" r:id="rId3"/>
-    <sheet name="Resistencias" sheetId="4" r:id="rId4"/>
+    <sheet name="Resistores" sheetId="4" r:id="rId4"/>
     <sheet name="Fuentes" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="402">
   <si>
     <t>Ref.</t>
   </si>
@@ -29,9 +34,6 @@
     <t>CAF</t>
   </si>
   <si>
-    <t>--</t>
-  </si>
-  <si>
     <t>CAI</t>
   </si>
   <si>
@@ -110,9 +112,6 @@
     <t xml:space="preserve"> 47µF</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0F</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 470µF</t>
   </si>
   <si>
@@ -206,9 +205,6 @@
     <t>Q1</t>
   </si>
   <si>
-    <t>(unknown)</t>
-  </si>
-  <si>
     <t>2SC5200</t>
   </si>
   <si>
@@ -233,9 +229,6 @@
     <t>Q7</t>
   </si>
   <si>
-    <t>Fairchild</t>
-  </si>
-  <si>
     <t>MJE340</t>
   </si>
   <si>
@@ -260,9 +253,6 @@
     <t>Q12</t>
   </si>
   <si>
-    <t>SIEMENS</t>
-  </si>
-  <si>
     <t>MPSA92</t>
   </si>
   <si>
@@ -431,9 +421,6 @@
     <t>RIOF</t>
   </si>
   <si>
-    <t>RL</t>
-  </si>
-  <si>
     <t>RL1</t>
   </si>
   <si>
@@ -446,30 +433,18 @@
     <t>RV1</t>
   </si>
   <si>
-    <t>Rtot=100 wiper=0.2975</t>
-  </si>
-  <si>
     <t>RV2</t>
   </si>
   <si>
-    <t>Rtot=100 wiper=0.6465</t>
-  </si>
-  <si>
     <t>RVC1</t>
   </si>
   <si>
-    <t>Rtot=2k wiper={bias_adj}</t>
-  </si>
-  <si>
     <t>RVC2</t>
   </si>
   <si>
     <t>RVMV</t>
   </si>
   <si>
-    <t>Rtot=1k wiper=0.4</t>
-  </si>
-  <si>
     <t xml:space="preserve">NPN </t>
   </si>
   <si>
@@ -569,12 +544,6 @@
     <t>Modelo</t>
   </si>
   <si>
-    <t xml:space="preserve"> 100m</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 150m</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 22K</t>
   </si>
   <si>
@@ -830,9 +799,6 @@
     <t>1.56953m</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>38.3388m</t>
   </si>
   <si>
@@ -1218,12 +1184,57 @@
   </si>
   <si>
     <t>V(out) Máx</t>
+  </si>
+  <si>
+    <t>Toshiba</t>
+  </si>
+  <si>
+    <t>ON semi</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>6.8nF</t>
+  </si>
+  <si>
+    <t>68pF</t>
+  </si>
+  <si>
+    <t>100pF</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.2pF</t>
+  </si>
+  <si>
+    <t>10m</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>125m</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.2k</t>
+  </si>
+  <si>
+    <t>30m</t>
+  </si>
+  <si>
+    <t>preset 25VL 100</t>
+  </si>
+  <si>
+    <t>preset 25VL 2K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1687,15 +1698,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1835,6 +1837,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1853,6 +1864,21 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1886,42 +1912,6 @@
         </top>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1995,6 +1985,27 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -2012,6 +2023,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2021,28 +2035,28 @@
   <autoFilter ref="A1:J29"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Referencia"/>
-    <tableColumn id="2" name="Fabricante" dataDxfId="12"/>
+    <tableColumn id="2" name="Fabricante" dataDxfId="21"/>
     <tableColumn id="3" name="Modelo"/>
-    <tableColumn id="4" name="Tipo" dataDxfId="11"/>
+    <tableColumn id="4" name="Tipo" dataDxfId="20"/>
     <tableColumn id="5" name="Función"/>
-    <tableColumn id="6" name="Corriente RMS" dataDxfId="17"/>
-    <tableColumn id="7" name="Corriente Máxima" dataDxfId="16"/>
-    <tableColumn id="8" name="Tensión Máxima" dataDxfId="15"/>
-    <tableColumn id="9" name="Potencia Media" dataDxfId="14"/>
-    <tableColumn id="10" name="Potencia Máxima" dataDxfId="13"/>
+    <tableColumn id="6" name="Corriente RMS" dataDxfId="19"/>
+    <tableColumn id="7" name="Corriente Máxima" dataDxfId="18"/>
+    <tableColumn id="8" name="Tensión Máxima" dataDxfId="17"/>
+    <tableColumn id="9" name="Potencia Media" dataDxfId="16"/>
+    <tableColumn id="10" name="Potencia Máxima" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Capacitores" displayName="Capacitores" ref="A1:D26" totalsRowShown="0" tableBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Capacitores" displayName="Capacitores" ref="A1:D26" totalsRowShown="0" tableBorderDxfId="14">
   <autoFilter ref="A1:D26"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Ref." dataDxfId="20"/>
-    <tableColumn id="2" name="Description" dataDxfId="19"/>
-    <tableColumn id="3" name="Valor" dataDxfId="6"/>
-    <tableColumn id="4" name="Tensión Máxima" dataDxfId="5"/>
+    <tableColumn id="1" name="Ref." dataDxfId="13"/>
+    <tableColumn id="2" name="Description" dataDxfId="12"/>
+    <tableColumn id="3" name="Valor" dataDxfId="11"/>
+    <tableColumn id="4" name="Tensión Máxima" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2053,20 +2067,20 @@
   <autoFilter ref="A1:G21"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Ref"/>
-    <tableColumn id="2" name="Modelo" dataDxfId="18"/>
+    <tableColumn id="2" name="Modelo" dataDxfId="9"/>
     <tableColumn id="3" name="Corriente"/>
-    <tableColumn id="4" name="Tensión Máxima" dataDxfId="10"/>
-    <tableColumn id="5" name="Corriente Máxima" dataDxfId="9"/>
-    <tableColumn id="6" name="Potencia Máxima" dataDxfId="8"/>
-    <tableColumn id="7" name="Potencia Promedio" dataDxfId="7"/>
+    <tableColumn id="4" name="Tensión Máxima" dataDxfId="8"/>
+    <tableColumn id="5" name="Corriente Máxima" dataDxfId="7"/>
+    <tableColumn id="6" name="Potencia Máxima" dataDxfId="6"/>
+    <tableColumn id="7" name="Potencia Promedio" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="A1:C45" totalsRowShown="0">
-  <autoFilter ref="A1:C45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="A1:C44" totalsRowShown="0">
+  <autoFilter ref="A1:C44"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Ref"/>
     <tableColumn id="2" name="Valor" dataDxfId="4"/>
@@ -2099,7 +2113,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2141,7 +2155,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2176,7 +2190,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2388,10 +2402,10 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
@@ -2407,871 +2421,915 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>62</v>
+        <v>387</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="G2" s="56" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="H2" s="56" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="I2" s="56" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="J2" s="56" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B3" s="70" t="s">
+        <v>387</v>
+      </c>
+      <c r="C3" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>65</v>
-      </c>
       <c r="D3" s="33" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F3" s="57" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G3" s="57" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="H3" s="57" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="I3" s="57" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="J3" s="57" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B4" s="71" t="s">
-        <v>62</v>
+        <v>387</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D4" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="E4" s="34" t="s">
-        <v>160</v>
-      </c>
       <c r="F4" s="58" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="G4" s="58" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="H4" s="58" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="I4" s="58" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="J4" s="58" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B5" s="72" t="s">
+        <v>387</v>
+      </c>
+      <c r="C5" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="45" t="s">
-        <v>65</v>
-      </c>
       <c r="D5" s="35" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F5" s="59" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="H5" s="59" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="I5" s="59" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="J5" s="59" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>62</v>
+        <v>387</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F6" s="56" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="G6" s="56" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="H6" s="56" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="I6" s="56" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="J6" s="56" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B7" s="70" t="s">
+        <v>387</v>
+      </c>
+      <c r="C7" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="43" t="s">
-        <v>65</v>
-      </c>
       <c r="D7" s="33" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E7" s="33" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="F7" s="57" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G7" s="57" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="H7" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="I7" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="J7" s="57" t="s">
         <v>204</v>
-      </c>
-      <c r="I7" s="57" t="s">
-        <v>205</v>
-      </c>
-      <c r="J7" s="57" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B8" s="73" t="s">
-        <v>71</v>
+        <v>388</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F8" s="60" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="G8" s="60" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="H8" s="60" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="I8" s="60" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="J8" s="60" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="74" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>388</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F9" s="61" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="G9" s="61" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="H9" s="61" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="I9" s="61" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="J9" s="61" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B10" s="73" t="s">
-        <v>71</v>
+        <v>388</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F10" s="60" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="G10" s="60" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="H10" s="60" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="I10" s="60" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="J10" s="60" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="74" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>388</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="F11" s="61" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="G11" s="61" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="H11" s="61" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="I11" s="61" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="J11" s="61" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>3</v>
+        <v>388</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="F12" s="62"/>
       <c r="G12" s="62"/>
       <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
+      <c r="I12" s="62" t="s">
+        <v>397</v>
+      </c>
       <c r="J12" s="62"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B13" s="76" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D13" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="37" t="s">
         <v>152</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>162</v>
       </c>
       <c r="F13" s="63"/>
       <c r="G13" s="63"/>
       <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
+      <c r="I13" s="62" t="s">
+        <v>397</v>
+      </c>
       <c r="J13" s="63"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>71</v>
+        <v>388</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F14" s="61" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="G14" s="61" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="H14" s="61" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="I14" s="61" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="J14" s="61" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>71</v>
+        <v>388</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F15" s="60" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="G15" s="60" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="H15" s="60" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="I15" s="60" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="J15" s="60" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>80</v>
+        <v>388</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F16" s="63" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G16" s="63" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="H16" s="63" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="I16" s="63" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="J16" s="63" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B17" s="77" t="s">
-        <v>3</v>
+        <v>388</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="H17" s="64" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="I17" s="64" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="J17" s="64" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B18" s="73" t="s">
-        <v>71</v>
+        <v>388</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F18" s="60" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="G18" s="60" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="H18" s="60" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="I18" s="60" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="J18" s="60" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B19" s="74" t="s">
-        <v>71</v>
+        <v>388</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="F19" s="61" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="G19" s="61" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="H19" s="61" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="I19" s="61" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="J19" s="61" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="77" t="s">
-        <v>3</v>
+        <v>84</v>
+      </c>
+      <c r="B20" s="74" t="s">
+        <v>388</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F20" s="64" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="G20" s="64" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="H20" s="64" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="I20" s="64" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="J20" s="64" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="78" t="s">
-        <v>3</v>
+        <v>85</v>
+      </c>
+      <c r="B21" s="74" t="s">
+        <v>388</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F21" s="65" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="G21" s="65" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="H21" s="65" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="I21" s="65" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="J21" s="65" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="79" t="s">
-        <v>3</v>
+        <v>87</v>
+      </c>
+      <c r="B22" s="74" t="s">
+        <v>388</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F22" s="66" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="G22" s="66" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="H22" s="66" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="I22" s="66" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="J22" s="66" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="80" t="s">
-        <v>3</v>
+        <v>89</v>
+      </c>
+      <c r="B23" s="74" t="s">
+        <v>388</v>
       </c>
       <c r="C23" s="53" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E23" s="25" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="F23" s="67" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="G23" s="67" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H23" s="67" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="I23" s="67" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="J23" s="67" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="77" t="s">
-        <v>3</v>
+        <v>91</v>
+      </c>
+      <c r="B24" s="74" t="s">
+        <v>388</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F24" s="64" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="G24" s="64" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="H24" s="64" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="I24" s="64" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="J24" s="64" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B25" s="78" t="s">
-        <v>3</v>
+        <v>92</v>
+      </c>
+      <c r="B25" s="74" t="s">
+        <v>388</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="F25" s="65" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="G25" s="65" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="H25" s="65" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="I25" s="65" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="J25" s="65" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B26" s="77" t="s">
-        <v>3</v>
+        <v>93</v>
+      </c>
+      <c r="B26" s="74" t="s">
+        <v>388</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
+        <v>159</v>
+      </c>
+      <c r="F26" s="64" t="s">
+        <v>252</v>
+      </c>
+      <c r="G26" s="64" t="s">
+        <v>251</v>
+      </c>
+      <c r="H26" s="64" t="s">
+        <v>253</v>
+      </c>
+      <c r="I26" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="J26" s="64" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" s="78" t="s">
-        <v>3</v>
+        <v>94</v>
+      </c>
+      <c r="B27" s="74" t="s">
+        <v>388</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
+        <v>158</v>
+      </c>
+      <c r="F27" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="G27" s="65" t="s">
+        <v>256</v>
+      </c>
+      <c r="H27" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="I27" s="65" t="s">
+        <v>259</v>
+      </c>
+      <c r="J27" s="65" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="79" t="s">
-        <v>3</v>
+        <v>95</v>
+      </c>
+      <c r="B28" s="74" t="s">
+        <v>388</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>167</v>
-      </c>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
+        <v>157</v>
+      </c>
+      <c r="F28" s="66" t="s">
+        <v>260</v>
+      </c>
+      <c r="G28" s="66" t="s">
+        <v>261</v>
+      </c>
+      <c r="H28" s="66" t="s">
+        <v>262</v>
+      </c>
+      <c r="I28" s="66" t="s">
+        <v>263</v>
+      </c>
+      <c r="J28" s="66" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="80" t="s">
-        <v>3</v>
+        <v>96</v>
+      </c>
+      <c r="B29" s="74" t="s">
+        <v>388</v>
       </c>
       <c r="C29" s="53" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="E29" s="25" t="s">
-        <v>165</v>
-      </c>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
+        <v>155</v>
+      </c>
+      <c r="F29" s="67" t="s">
+        <v>266</v>
+      </c>
+      <c r="G29" s="67" t="s">
+        <v>265</v>
+      </c>
+      <c r="H29" s="67" t="s">
+        <v>262</v>
+      </c>
+      <c r="I29" s="67" t="s">
+        <v>268</v>
+      </c>
+      <c r="J29" s="67" t="s">
+        <v>267</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3286,11 +3344,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
@@ -3306,358 +3364,360 @@
         <v>1</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="88" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="88" t="s">
+      <c r="B2" s="85" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="88" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="D3" s="83">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="86" t="s">
+      <c r="B4" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="109" t="s">
+        <v>389</v>
+      </c>
+      <c r="D4" s="109" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="111" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="111" t="s">
+        <v>390</v>
+      </c>
+      <c r="D5" s="111" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="109" t="s">
+        <v>391</v>
+      </c>
+      <c r="D6" s="109" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="110" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="111" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="109" t="s">
+        <v>391</v>
+      </c>
+      <c r="D7" s="111" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="109" t="s">
+        <v>392</v>
+      </c>
+      <c r="D8" s="109" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="111" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="109" t="s">
+        <v>392</v>
+      </c>
+      <c r="D9" s="111" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="109" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="109" t="s">
+        <v>393</v>
+      </c>
+      <c r="D10" s="109" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="112" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="113" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="86"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="111" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="112" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="112" t="s">
+      <c r="D11" s="113" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="87" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="112" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="113" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="113" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="113" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="87" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="114" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="115" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="112" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="113" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="114" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="114" t="s">
+      <c r="D15" s="115" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="116" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="117" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="114" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="111" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="112" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="112" t="s">
+      <c r="D16" s="117" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="114" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="115" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="112" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="113" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="114" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="114" t="s">
+      <c r="D17" s="115" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="116" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="117" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="114" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="111" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="112" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="112" t="s">
+      <c r="D18" s="117" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="113" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="113" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="113" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="86" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="87" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="114" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="115" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="112" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="113" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="114" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="114" t="s">
+      <c r="D21" s="115" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="116" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="117" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="114" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="111" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="112" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="112" t="s">
+      <c r="D22" s="117" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="78" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="79" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="81" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="81" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="114" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="115" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="112" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="115" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="116" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="116" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="89" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="90" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="90" t="s">
+      <c r="D25" s="115" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="115" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="116" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="116" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="116" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="117" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="117" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="117" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="89" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="90" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="90" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="117" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="118" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="118" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="118" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="119" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="120" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="120" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="120" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="117" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="118" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="118" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="118" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="119" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="120" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="120" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="120" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="115" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="116" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="116" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="116" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="89" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="90" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="90" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="117" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="118" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="118" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="118" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="119" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="120" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="120" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="120" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="81" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="82" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="83" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="84" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="84" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="84" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="117" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="118" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="118" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="118" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="119" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="120" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="120" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="120" t="s">
-        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3674,10 +3734,10 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" customWidth="1"/>
@@ -3687,382 +3747,418 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" t="s">
         <v>181</v>
       </c>
-      <c r="B1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C1" t="s">
-        <v>193</v>
-      </c>
       <c r="D1" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="E1" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="F1" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="G1" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="106" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106" t="s">
+        <v>292</v>
+      </c>
+      <c r="E4" s="107" t="s">
+        <v>293</v>
+      </c>
+      <c r="F4" s="106" t="s">
+        <v>294</v>
+      </c>
+      <c r="G4" s="106" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="E5" s="107" t="s">
+        <v>299</v>
+      </c>
+      <c r="F5" s="106" t="s">
+        <v>297</v>
+      </c>
+      <c r="G5" s="106" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="106" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="106"/>
+      <c r="D6" s="138">
+        <v>3</v>
+      </c>
+      <c r="E6" s="107"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="106" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="106"/>
+      <c r="D7" s="138">
+        <v>3</v>
+      </c>
+      <c r="E7" s="107"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="106" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="106"/>
+      <c r="D8" s="138">
+        <v>1.5</v>
+      </c>
+      <c r="E8" s="107"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="106"/>
+      <c r="D9" s="138">
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="107"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="106" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="106"/>
+      <c r="D10" s="138">
+        <v>1.5</v>
+      </c>
+      <c r="E10" s="107"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="106"/>
+      <c r="D11" s="138">
+        <v>1.5</v>
+      </c>
+      <c r="E11" s="107"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106" t="s">
+        <v>316</v>
+      </c>
+      <c r="E12" s="107" t="s">
+        <v>317</v>
+      </c>
+      <c r="F12" s="106" t="s">
+        <v>318</v>
+      </c>
+      <c r="G12" s="106" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106" t="s">
+        <v>320</v>
+      </c>
+      <c r="E13" s="107" t="s">
+        <v>321</v>
+      </c>
+      <c r="F13" s="106" t="s">
+        <v>322</v>
+      </c>
+      <c r="G13" s="106" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="106" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="106"/>
+      <c r="D14" s="106" t="s">
+        <v>316</v>
+      </c>
+      <c r="E14" s="107" t="s">
+        <v>317</v>
+      </c>
+      <c r="F14" s="106" t="s">
+        <v>318</v>
+      </c>
+      <c r="G14" s="106" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="106" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="107" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106" t="s">
+        <v>320</v>
+      </c>
+      <c r="E15" s="107" t="s">
+        <v>321</v>
+      </c>
+      <c r="F15" s="106" t="s">
+        <v>322</v>
+      </c>
+      <c r="G15" s="106" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95" t="s">
+        <v>300</v>
+      </c>
+      <c r="E16" s="96" t="s">
+        <v>302</v>
+      </c>
+      <c r="F16" s="95" t="s">
         <v>301</v>
       </c>
-      <c r="E3" s="35" t="s">
-        <v>302</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="G16" s="95" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95" t="s">
         <v>304</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="109" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="110" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109" t="s">
+      <c r="E17" s="96" t="s">
         <v>305</v>
       </c>
-      <c r="E4" s="110" t="s">
+      <c r="F17" s="95" t="s">
         <v>306</v>
       </c>
-      <c r="F4" s="109" t="s">
+      <c r="G17" s="95" t="s">
         <v>307</v>
-      </c>
-      <c r="G4" s="109" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="109" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="110" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109" t="s">
-        <v>309</v>
-      </c>
-      <c r="E5" s="110" t="s">
-        <v>312</v>
-      </c>
-      <c r="F5" s="109" t="s">
-        <v>310</v>
-      </c>
-      <c r="G5" s="109" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="109" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="110" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="110"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="109" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="110" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="109" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="110" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="109" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="110" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="109" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="110" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="109" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="110" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="109" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="110" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109" t="s">
-        <v>329</v>
-      </c>
-      <c r="E12" s="110" t="s">
-        <v>330</v>
-      </c>
-      <c r="F12" s="109" t="s">
-        <v>331</v>
-      </c>
-      <c r="G12" s="109" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="109" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="110" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109" t="s">
-        <v>333</v>
-      </c>
-      <c r="E13" s="110" t="s">
-        <v>334</v>
-      </c>
-      <c r="F13" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="G13" s="109" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="109" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" s="110" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109" t="s">
-        <v>329</v>
-      </c>
-      <c r="E14" s="110" t="s">
-        <v>330</v>
-      </c>
-      <c r="F14" s="109" t="s">
-        <v>331</v>
-      </c>
-      <c r="G14" s="109" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="109" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="110" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109" t="s">
-        <v>333</v>
-      </c>
-      <c r="E15" s="110" t="s">
-        <v>334</v>
-      </c>
-      <c r="F15" s="109" t="s">
-        <v>335</v>
-      </c>
-      <c r="G15" s="109" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="99" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98" t="s">
-        <v>313</v>
-      </c>
-      <c r="E16" s="99" t="s">
-        <v>315</v>
-      </c>
-      <c r="F16" s="98" t="s">
-        <v>314</v>
-      </c>
-      <c r="G16" s="98" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="98" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="99" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98" t="s">
-        <v>317</v>
-      </c>
-      <c r="E17" s="99" t="s">
-        <v>318</v>
-      </c>
-      <c r="F17" s="98" t="s">
-        <v>319</v>
-      </c>
-      <c r="G17" s="98" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="23" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="23" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="95" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
+      <c r="A20" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="91"/>
+      <c r="D20" s="139">
+        <v>65</v>
+      </c>
+      <c r="E20" s="92" t="s">
+        <v>394</v>
+      </c>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="96" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="B21" s="93" t="s">
+        <v>58</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="96"/>
+      <c r="D21" s="140">
+        <v>65</v>
+      </c>
+      <c r="E21" s="93" t="s">
+        <v>394</v>
+      </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="G21" s="91" t="s">
+        <v>399</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4074,13 +4170,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
@@ -4088,472 +4184,483 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="97" t="s">
-        <v>183</v>
-      </c>
-      <c r="C2" s="125"/>
+        <v>97</v>
+      </c>
+      <c r="B2" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="122" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="97" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" s="125"/>
+        <v>98</v>
+      </c>
+      <c r="B3" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="C3" s="122" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="99" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" s="126"/>
+      <c r="A4" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="96">
+        <v>0.15</v>
+      </c>
+      <c r="C4" s="123" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="98" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="99" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="126"/>
-      <c r="E5" s="138"/>
+      <c r="A5" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="96">
+        <v>0.15</v>
+      </c>
+      <c r="C5" s="123" t="s">
+        <v>396</v>
+      </c>
+      <c r="E5" s="135"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="97" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="125"/>
+        <v>101</v>
+      </c>
+      <c r="B6" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="122" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="97" t="s">
-        <v>183</v>
-      </c>
-      <c r="C7" s="125"/>
+        <v>102</v>
+      </c>
+      <c r="B7" s="94">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="122" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B8" s="31">
         <v>68</v>
       </c>
-      <c r="C8" s="127"/>
+      <c r="C8" s="124" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B9" s="31">
         <v>68</v>
       </c>
-      <c r="C9" s="127"/>
+      <c r="C9" s="124" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B10" s="37">
         <v>100</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B11" s="37">
         <v>100</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B12" s="37">
         <v>100</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B13" s="37">
         <v>100</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="100" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="101" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" s="128"/>
+      <c r="A14" s="97" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="98" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="125"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="100" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="101" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" s="128"/>
+      <c r="A15" s="97" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="98" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="125"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="102" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="103">
+      <c r="A16" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="100">
         <v>30</v>
       </c>
-      <c r="C16" s="129" t="s">
-        <v>357</v>
+      <c r="C16" s="126" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="102" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="103">
+      <c r="A17" s="99" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="100">
         <v>30</v>
       </c>
-      <c r="C17" s="129" t="s">
-        <v>358</v>
+      <c r="C17" s="126" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="97">
+        <v>113</v>
+      </c>
+      <c r="B18" s="94">
         <v>100</v>
       </c>
-      <c r="C18" s="125" t="s">
-        <v>359</v>
+      <c r="C18" s="122" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="97">
+        <v>114</v>
+      </c>
+      <c r="B19" s="94">
         <v>100</v>
       </c>
-      <c r="C19" s="125" t="s">
-        <v>361</v>
+      <c r="C19" s="122" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="91">
+        <v>115</v>
+      </c>
+      <c r="B20" s="88">
         <v>360</v>
       </c>
-      <c r="C20" s="130" t="s">
-        <v>360</v>
+      <c r="C20" s="127" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="91">
+        <v>116</v>
+      </c>
+      <c r="B21" s="88">
         <v>360</v>
       </c>
-      <c r="C21" s="130" t="s">
-        <v>362</v>
+      <c r="C21" s="127" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B22" s="21">
         <v>510</v>
       </c>
       <c r="C22" s="64" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B23" s="21">
         <v>510</v>
       </c>
       <c r="C23" s="64" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="C24" s="131" t="s">
-        <v>367</v>
+        <v>174</v>
+      </c>
+      <c r="C24" s="128" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="C25" s="131" t="s">
-        <v>368</v>
+        <v>174</v>
+      </c>
+      <c r="C25" s="128" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B26" s="33">
         <v>150</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B27" s="33">
         <v>150</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="92" t="s">
-        <v>128</v>
-      </c>
-      <c r="B28" s="93" t="s">
-        <v>187</v>
-      </c>
-      <c r="C28" s="132" t="s">
-        <v>371</v>
+      <c r="A28" s="89" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="90" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="129" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="92" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" s="93" t="s">
-        <v>187</v>
-      </c>
-      <c r="C29" s="132" t="s">
-        <v>372</v>
+      <c r="A29" s="89" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="90" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="129" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="C30" s="133" t="s">
-        <v>373</v>
+        <v>176</v>
+      </c>
+      <c r="C30" s="130" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>188</v>
-      </c>
-      <c r="C31" s="133" t="s">
-        <v>374</v>
+        <v>176</v>
+      </c>
+      <c r="C31" s="130" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B32" s="22">
         <v>15</v>
       </c>
-      <c r="C32" s="134" t="s">
-        <v>353</v>
+      <c r="C32" s="131" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B33" s="22">
         <v>15</v>
       </c>
-      <c r="C33" s="134" t="s">
-        <v>378</v>
+      <c r="C33" s="131" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="C34" s="135"/>
+        <v>177</v>
+      </c>
+      <c r="C34" s="132" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" s="104" t="s">
-        <v>190</v>
-      </c>
-      <c r="C35" s="136"/>
+        <v>130</v>
+      </c>
+      <c r="B35" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="C35" s="133" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="132" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="120" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="121" t="s">
+        <v>179</v>
+      </c>
+      <c r="C37" s="121"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="118" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="119" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" s="119"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="102" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="103" t="s">
+        <v>400</v>
+      </c>
+      <c r="C40" s="103" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="102" t="s">
         <v>136</v>
       </c>
-      <c r="B36" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="C36" s="135" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B41" s="103" t="s">
+        <v>400</v>
+      </c>
+      <c r="C41" s="103" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="104" t="s">
         <v>137</v>
       </c>
-      <c r="B37" s="1">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="123" t="s">
+      <c r="B42" s="105" t="s">
+        <v>401</v>
+      </c>
+      <c r="C42" s="105" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="B38" s="124" t="s">
-        <v>191</v>
-      </c>
-      <c r="C38" s="124"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="121" t="s">
+      <c r="B43" s="105" t="s">
+        <v>401</v>
+      </c>
+      <c r="C43" s="134" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="106" t="s">
         <v>139</v>
       </c>
-      <c r="B39" s="122" t="s">
-        <v>192</v>
-      </c>
-      <c r="C39" s="122"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="B40" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="C40" s="39" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="B41" s="106" t="s">
-        <v>142</v>
-      </c>
-      <c r="C41" s="106" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="105" t="s">
-        <v>143</v>
-      </c>
-      <c r="B42" s="106" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="106" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="107" t="s">
-        <v>145</v>
-      </c>
-      <c r="B43" s="108" t="s">
-        <v>146</v>
-      </c>
-      <c r="C43" s="108" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="107" t="s">
-        <v>147</v>
-      </c>
-      <c r="B44" s="108" t="s">
-        <v>146</v>
-      </c>
-      <c r="C44" s="137" t="s">
-        <v>372</v>
+      <c r="B44" s="107" t="s">
+        <v>401</v>
+      </c>
+      <c r="C44" s="107" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="109" t="s">
-        <v>148</v>
-      </c>
-      <c r="B45" s="110" t="s">
-        <v>149</v>
-      </c>
-      <c r="C45" s="110" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C46" s="1"/>
+      <c r="C45" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4567,11 +4674,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
@@ -4581,94 +4688,94 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="E1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F1" s="139" t="s">
-        <v>180</v>
+        <v>169</v>
+      </c>
+      <c r="F1" s="136" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="B2" s="68" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="E2" t="s">
-        <v>397</v>
-      </c>
-      <c r="F2" s="139">
+        <v>384</v>
+      </c>
+      <c r="F2" s="136">
         <v>145571</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="68" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="B3" s="68" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="E3" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="B4" s="68" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="E4" t="s">
-        <v>398</v>
-      </c>
-      <c r="F4" s="140" t="s">
-        <v>393</v>
+        <v>385</v>
+      </c>
+      <c r="F4" s="137" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="E5" t="s">
-        <v>394</v>
-      </c>
-      <c r="F5" s="140" t="s">
-        <v>396</v>
+        <v>381</v>
+      </c>
+      <c r="F5" s="137" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="68" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="E6" t="s">
-        <v>399</v>
-      </c>
-      <c r="F6" s="140" t="s">
-        <v>395</v>
+        <v>386</v>
+      </c>
+      <c r="F6" s="137" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="68" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">

--- a/TP_Final/TEXTO/Rating.xlsx
+++ b/TP_Final/TEXTO/Rating.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bakaneko\Facultad\Materias\Circuitos Electrónicos II\TPS\REPO-TPS\Circuitos-2\TP_Final\TEXTO\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="11715" windowHeight="6210" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="11715" windowHeight="6210"/>
   </bookViews>
   <sheets>
     <sheet name="Transistores" sheetId="1" r:id="rId1"/>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="461">
   <si>
     <t>Ref.</t>
   </si>
@@ -568,9 +563,6 @@
     <t xml:space="preserve"> 5.6K</t>
   </si>
   <si>
-    <t>Corriente</t>
-  </si>
-  <si>
     <t>Potencia Media</t>
   </si>
   <si>
@@ -1229,12 +1221,192 @@
   </si>
   <si>
     <t>preset 25VL 2K</t>
+  </si>
+  <si>
+    <t>Encapsulado</t>
+  </si>
+  <si>
+    <t>Montaje</t>
+  </si>
+  <si>
+    <t>Proveedor</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>TO-3PL</t>
+  </si>
+  <si>
+    <t>TH</t>
+  </si>
+  <si>
+    <t>VCEO=230V; IC=15A; PC=150W</t>
+  </si>
+  <si>
+    <t>Rating Maximos absolutos</t>
+  </si>
+  <si>
+    <t>VCEO=-230V; IC=-15A; PC=150W</t>
+  </si>
+  <si>
+    <t>TO−225</t>
+  </si>
+  <si>
+    <t>VCEO=-300V; IC=-0,5A; PC=20W</t>
+  </si>
+  <si>
+    <t>VCEO=300V; IC=-0,5A; PC=20W</t>
+  </si>
+  <si>
+    <t>TO−92</t>
+  </si>
+  <si>
+    <t>VCEO=300V; IC=-0,5A; PC=625mW</t>
+  </si>
+  <si>
+    <t>SOT-23</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>VCEO=300V; IC=-0,5A</t>
+  </si>
+  <si>
+    <t>SO−16</t>
+  </si>
+  <si>
+    <t>VCEO=40V; IC=-0,2A</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>(ML)wired componentes</t>
+  </si>
+  <si>
+    <t>(ML)CD Electrónica</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>(ML)CYBEROFICE</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>(ML)COMERCIALICSA</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>(ML)SDVELECTRONICA</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Tensión de Operación</t>
+  </si>
+  <si>
+    <t>16V</t>
+  </si>
+  <si>
+    <t>10V</t>
+  </si>
+  <si>
+    <t>Electrolítico</t>
+  </si>
+  <si>
+    <t>Cerámico</t>
+  </si>
+  <si>
+    <t>100VAC</t>
+  </si>
+  <si>
+    <t>50VAC</t>
+  </si>
+  <si>
+    <t>80VAC</t>
+  </si>
+  <si>
+    <t>Cerámico / Tantalio</t>
+  </si>
+  <si>
+    <t>100V</t>
+  </si>
+  <si>
+    <t>50V</t>
+  </si>
+  <si>
+    <t>10VAC</t>
+  </si>
+  <si>
+    <t>Tensión Máxima3</t>
+  </si>
+  <si>
+    <t>TO−220</t>
+  </si>
+  <si>
+    <t>SOD123</t>
+  </si>
+  <si>
+    <t>DO-35</t>
+  </si>
+  <si>
+    <t>DO – 35</t>
+  </si>
+  <si>
+    <t>5mm</t>
+  </si>
+  <si>
+    <t>ML - CYBEROFICE</t>
+  </si>
+  <si>
+    <t>(ML)NUBBEO</t>
+  </si>
+  <si>
+    <t>gmelectronica</t>
+  </si>
+  <si>
+    <t>Disipación de Potencia [W]</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1/4</t>
+  </si>
+  <si>
+    <t>1/8</t>
+  </si>
+  <si>
+    <t>Tecnología</t>
+  </si>
+  <si>
+    <t>Metal Film</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1/2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1244,7 +1416,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1463,12 +1635,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
@@ -1488,6 +1654,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1513,7 +1703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1695,9 +1885,6 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1774,22 +1961,18 @@
     <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1829,39 +2012,62 @@
     <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1876,6 +2082,13 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -2000,6 +2213,21 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2007,6 +2235,22 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2031,60 +2275,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:J29" totalsRowShown="0" headerRowDxfId="22">
-  <autoFilter ref="A1:J29"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:O29" totalsRowShown="0" headerRowDxfId="26">
+  <autoFilter ref="A1:O29"/>
+  <tableColumns count="15">
     <tableColumn id="1" name="Referencia"/>
-    <tableColumn id="2" name="Fabricante" dataDxfId="21"/>
+    <tableColumn id="2" name="Fabricante" dataDxfId="25"/>
     <tableColumn id="3" name="Modelo"/>
-    <tableColumn id="4" name="Tipo" dataDxfId="20"/>
+    <tableColumn id="4" name="Tipo" dataDxfId="24"/>
     <tableColumn id="5" name="Función"/>
-    <tableColumn id="6" name="Corriente RMS" dataDxfId="19"/>
-    <tableColumn id="7" name="Corriente Máxima" dataDxfId="18"/>
-    <tableColumn id="8" name="Tensión Máxima" dataDxfId="17"/>
-    <tableColumn id="9" name="Potencia Media" dataDxfId="16"/>
-    <tableColumn id="10" name="Potencia Máxima" dataDxfId="15"/>
+    <tableColumn id="6" name="Corriente RMS" dataDxfId="23"/>
+    <tableColumn id="7" name="Corriente Máxima" dataDxfId="22"/>
+    <tableColumn id="8" name="Tensión Máxima" dataDxfId="21"/>
+    <tableColumn id="9" name="Potencia Media" dataDxfId="20"/>
+    <tableColumn id="10" name="Potencia Máxima" dataDxfId="19"/>
+    <tableColumn id="11" name="Rating Maximos absolutos" dataDxfId="18"/>
+    <tableColumn id="12" name="Encapsulado" dataDxfId="17"/>
+    <tableColumn id="13" name="Montaje" dataDxfId="16"/>
+    <tableColumn id="14" name="Proveedor" dataDxfId="15"/>
+    <tableColumn id="15" name="Precio" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Capacitores" displayName="Capacitores" ref="A1:D26" totalsRowShown="0" tableBorderDxfId="14">
-  <autoFilter ref="A1:D26"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Ref." dataDxfId="13"/>
-    <tableColumn id="2" name="Description" dataDxfId="12"/>
-    <tableColumn id="3" name="Valor" dataDxfId="11"/>
-    <tableColumn id="4" name="Tensión Máxima" dataDxfId="10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Capacitores" displayName="Capacitores" ref="A1:F26" totalsRowShown="0" tableBorderDxfId="13">
+  <autoFilter ref="A1:F26"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Ref." dataDxfId="12"/>
+    <tableColumn id="2" name="Description" dataDxfId="11"/>
+    <tableColumn id="3" name="Valor" dataDxfId="10"/>
+    <tableColumn id="4" name="Tensión Máxima" dataDxfId="9"/>
+    <tableColumn id="5" name="Tensión de Operación"/>
+    <tableColumn id="6" name="Tensión Máxima3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="A1:G21" totalsRowShown="0">
-  <autoFilter ref="A1:G21"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla5" displayName="Tabla5" ref="A1:J21" totalsRowShown="0">
+  <autoFilter ref="A1:J21"/>
+  <tableColumns count="10">
     <tableColumn id="1" name="Ref"/>
-    <tableColumn id="2" name="Modelo" dataDxfId="9"/>
-    <tableColumn id="3" name="Corriente"/>
-    <tableColumn id="4" name="Tensión Máxima" dataDxfId="8"/>
+    <tableColumn id="2" name="Modelo" dataDxfId="8"/>
+    <tableColumn id="4" name="Tensión Máxima" dataDxfId="6"/>
     <tableColumn id="5" name="Corriente Máxima" dataDxfId="7"/>
-    <tableColumn id="6" name="Potencia Máxima" dataDxfId="6"/>
-    <tableColumn id="7" name="Potencia Promedio" dataDxfId="5"/>
+    <tableColumn id="6" name="Potencia Máxima" dataDxfId="31"/>
+    <tableColumn id="7" name="Potencia Promedio" dataDxfId="30"/>
+    <tableColumn id="3" name="Encapsulado" dataDxfId="5"/>
+    <tableColumn id="8" name="Montaje" dataDxfId="4"/>
+    <tableColumn id="9" name="Proveedor" dataDxfId="3"/>
+    <tableColumn id="10" name="Precio" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="A1:C44" totalsRowShown="0">
-  <autoFilter ref="A1:C44"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabla6" displayName="Tabla6" ref="A1:E44" totalsRowShown="0">
+  <autoFilter ref="A1:E44"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Ref"/>
-    <tableColumn id="2" name="Valor" dataDxfId="4"/>
-    <tableColumn id="3" name="Potencia Media" dataDxfId="3"/>
+    <tableColumn id="2" name="Valor" dataDxfId="1"/>
+    <tableColumn id="3" name="Potencia Media" dataDxfId="0"/>
+    <tableColumn id="4" name="Disipación de Potencia [W]"/>
+    <tableColumn id="5" name="Tecnología"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2094,8 +2350,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="A1:B7" totalsRowShown="0">
   <autoFilter ref="A1:B7"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Ref" dataDxfId="2"/>
-    <tableColumn id="2" name="Potencia Promedio" dataDxfId="1"/>
+    <tableColumn id="1" name="Ref" dataDxfId="29"/>
+    <tableColumn id="2" name="Potencia Promedio" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2106,14 +2362,14 @@
   <autoFilter ref="E1:F6"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Columna1"/>
-    <tableColumn id="2" name="Columna2" dataDxfId="0"/>
+    <tableColumn id="2" name="Columna2" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2155,7 +2411,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2190,7 +2446,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2399,27 +2655,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="5" max="5" width="39" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="30" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" customWidth="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>164</v>
       </c>
@@ -2436,27 +2696,42 @@
         <v>167</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C2" s="42" t="s">
         <v>60</v>
@@ -2468,27 +2743,42 @@
         <v>148</v>
       </c>
       <c r="F2" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="H2" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="H2" s="56" t="s">
+      <c r="I2" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="J2" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="I2" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="J2" s="56" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="56" t="s">
+        <v>407</v>
+      </c>
+      <c r="L2" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="M2" s="56" t="s">
+        <v>406</v>
+      </c>
+      <c r="N2" s="56" t="s">
+        <v>421</v>
+      </c>
+      <c r="O2" s="56" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B3" s="70" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C3" s="43" t="s">
         <v>62</v>
@@ -2500,27 +2790,42 @@
         <v>149</v>
       </c>
       <c r="F3" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="H3" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="I3" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="J3" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="G3" s="57" t="s">
-        <v>189</v>
-      </c>
-      <c r="H3" s="57" t="s">
-        <v>192</v>
-      </c>
-      <c r="I3" s="57" t="s">
-        <v>193</v>
-      </c>
-      <c r="J3" s="57" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="57" t="s">
+        <v>409</v>
+      </c>
+      <c r="L3" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="M3" s="57" t="s">
+        <v>406</v>
+      </c>
+      <c r="N3" s="57" t="s">
+        <v>421</v>
+      </c>
+      <c r="O3" s="57" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="71" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C4" s="44" t="s">
         <v>60</v>
@@ -2532,27 +2837,42 @@
         <v>150</v>
       </c>
       <c r="F4" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" s="58" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="58" t="s">
-        <v>194</v>
-      </c>
-      <c r="H4" s="58" t="s">
+      <c r="I4" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="J4" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="I4" s="58" t="s">
-        <v>198</v>
-      </c>
-      <c r="J4" s="58" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="58" t="s">
+        <v>407</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>405</v>
+      </c>
+      <c r="M4" s="58" t="s">
+        <v>406</v>
+      </c>
+      <c r="N4" s="58" t="s">
+        <v>421</v>
+      </c>
+      <c r="O4" s="58" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C5" s="45" t="s">
         <v>62</v>
@@ -2564,27 +2884,42 @@
         <v>151</v>
       </c>
       <c r="F5" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="H5" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="G5" s="59" t="s">
-        <v>199</v>
-      </c>
-      <c r="H5" s="59" t="s">
+      <c r="I5" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="J5" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="I5" s="59" t="s">
-        <v>203</v>
-      </c>
-      <c r="J5" s="59" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="59" t="s">
+        <v>409</v>
+      </c>
+      <c r="L5" s="59" t="s">
+        <v>405</v>
+      </c>
+      <c r="M5" s="59" t="s">
+        <v>406</v>
+      </c>
+      <c r="N5" s="59" t="s">
+        <v>421</v>
+      </c>
+      <c r="O5" s="59" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>65</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>60</v>
@@ -2596,27 +2931,42 @@
         <v>148</v>
       </c>
       <c r="F6" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6" s="56" t="s">
         <v>185</v>
       </c>
-      <c r="G6" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="H6" s="56" t="s">
+      <c r="I6" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="J6" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="I6" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="J6" s="56" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="56" t="s">
+        <v>407</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="M6" s="56" t="s">
+        <v>406</v>
+      </c>
+      <c r="N6" s="56" t="s">
+        <v>421</v>
+      </c>
+      <c r="O6" s="56" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>66</v>
       </c>
       <c r="B7" s="70" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C7" s="43" t="s">
         <v>62</v>
@@ -2628,27 +2978,42 @@
         <v>149</v>
       </c>
       <c r="F7" s="57" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G7" s="57" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H7" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="I7" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="I7" s="57" t="s">
-        <v>193</v>
-      </c>
       <c r="J7" s="57" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="K7" s="57" t="s">
+        <v>412</v>
+      </c>
+      <c r="L7" s="57" t="s">
+        <v>405</v>
+      </c>
+      <c r="M7" s="57" t="s">
+        <v>406</v>
+      </c>
+      <c r="N7" s="57" t="s">
+        <v>421</v>
+      </c>
+      <c r="O7" s="57" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="73" t="s">
-        <v>388</v>
+      <c r="B8" s="46" t="s">
+        <v>387</v>
       </c>
       <c r="C8" s="46" t="s">
         <v>68</v>
@@ -2660,27 +3025,42 @@
         <v>144</v>
       </c>
       <c r="F8" s="60" t="s">
+        <v>204</v>
+      </c>
+      <c r="G8" s="60" t="s">
         <v>205</v>
       </c>
-      <c r="G8" s="60" t="s">
+      <c r="H8" s="60" t="s">
         <v>206</v>
       </c>
-      <c r="H8" s="60" t="s">
+      <c r="I8" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="J8" s="60" t="s">
         <v>207</v>
       </c>
-      <c r="I8" s="60" t="s">
-        <v>209</v>
-      </c>
-      <c r="J8" s="60" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" s="60" t="s">
+        <v>411</v>
+      </c>
+      <c r="L8" s="60" t="s">
+        <v>410</v>
+      </c>
+      <c r="M8" s="60" t="s">
+        <v>406</v>
+      </c>
+      <c r="N8" s="60" t="s">
+        <v>422</v>
+      </c>
+      <c r="O8" s="60" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="73" t="s">
-        <v>388</v>
+      <c r="B9" s="47" t="s">
+        <v>387</v>
       </c>
       <c r="C9" s="47" t="s">
         <v>70</v>
@@ -2692,27 +3072,42 @@
         <v>144</v>
       </c>
       <c r="F9" s="61" t="s">
+        <v>210</v>
+      </c>
+      <c r="G9" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="H9" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="I9" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="J9" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="G9" s="61" t="s">
-        <v>210</v>
-      </c>
-      <c r="H9" s="61" t="s">
-        <v>192</v>
-      </c>
-      <c r="I9" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="J9" s="61" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="61" t="s">
+        <v>412</v>
+      </c>
+      <c r="L9" s="61" t="s">
+        <v>410</v>
+      </c>
+      <c r="M9" s="61" t="s">
+        <v>406</v>
+      </c>
+      <c r="N9" s="61" t="s">
+        <v>422</v>
+      </c>
+      <c r="O9" s="61" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="73" t="s">
-        <v>388</v>
+      <c r="B10" s="46" t="s">
+        <v>387</v>
       </c>
       <c r="C10" s="46" t="s">
         <v>68</v>
@@ -2724,27 +3119,42 @@
         <v>145</v>
       </c>
       <c r="F10" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>213</v>
+      </c>
+      <c r="H10" s="60" t="s">
         <v>215</v>
       </c>
-      <c r="G10" s="60" t="s">
-        <v>214</v>
-      </c>
-      <c r="H10" s="60" t="s">
+      <c r="I10" s="60" t="s">
+        <v>217</v>
+      </c>
+      <c r="J10" s="60" t="s">
         <v>216</v>
       </c>
-      <c r="I10" s="60" t="s">
-        <v>218</v>
-      </c>
-      <c r="J10" s="60" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="60" t="s">
+        <v>412</v>
+      </c>
+      <c r="L10" s="60" t="s">
+        <v>410</v>
+      </c>
+      <c r="M10" s="60" t="s">
+        <v>406</v>
+      </c>
+      <c r="N10" s="60" t="s">
+        <v>422</v>
+      </c>
+      <c r="O10" s="60" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="73" t="s">
-        <v>388</v>
+      <c r="B11" s="47" t="s">
+        <v>387</v>
       </c>
       <c r="C11" s="47" t="s">
         <v>70</v>
@@ -2756,27 +3166,42 @@
         <v>145</v>
       </c>
       <c r="F11" s="61" t="s">
+        <v>219</v>
+      </c>
+      <c r="G11" s="61" t="s">
+        <v>218</v>
+      </c>
+      <c r="H11" s="61" t="s">
         <v>220</v>
       </c>
-      <c r="G11" s="61" t="s">
-        <v>219</v>
-      </c>
-      <c r="H11" s="61" t="s">
+      <c r="I11" s="61" t="s">
+        <v>222</v>
+      </c>
+      <c r="J11" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="I11" s="61" t="s">
-        <v>223</v>
-      </c>
-      <c r="J11" s="61" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" s="61" t="s">
+        <v>412</v>
+      </c>
+      <c r="L11" s="61" t="s">
+        <v>410</v>
+      </c>
+      <c r="M11" s="61" t="s">
+        <v>406</v>
+      </c>
+      <c r="N11" s="61" t="s">
+        <v>422</v>
+      </c>
+      <c r="O11" s="61" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>73</v>
       </c>
       <c r="B12" s="75" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C12" s="48" t="s">
         <v>74</v>
@@ -2791,16 +3216,31 @@
       <c r="G12" s="62"/>
       <c r="H12" s="62"/>
       <c r="I12" s="62" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J12" s="62"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="62" t="s">
+        <v>414</v>
+      </c>
+      <c r="L12" s="62" t="s">
+        <v>413</v>
+      </c>
+      <c r="M12" s="62" t="s">
+        <v>406</v>
+      </c>
+      <c r="N12" s="62" t="s">
+        <v>429</v>
+      </c>
+      <c r="O12" s="62" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
         <v>75</v>
       </c>
       <c r="B13" s="76" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C13" s="49" t="s">
         <v>76</v>
@@ -2814,17 +3254,32 @@
       <c r="F13" s="63"/>
       <c r="G13" s="63"/>
       <c r="H13" s="63"/>
-      <c r="I13" s="62" t="s">
-        <v>397</v>
+      <c r="I13" s="63" t="s">
+        <v>396</v>
       </c>
       <c r="J13" s="63"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="63" t="s">
+        <v>414</v>
+      </c>
+      <c r="L13" s="63" t="s">
+        <v>413</v>
+      </c>
+      <c r="M13" s="63" t="s">
+        <v>406</v>
+      </c>
+      <c r="N13" s="63" t="s">
+        <v>429</v>
+      </c>
+      <c r="O13" s="63" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>77</v>
       </c>
       <c r="B14" s="74" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C14" s="47" t="s">
         <v>70</v>
@@ -2836,27 +3291,42 @@
         <v>146</v>
       </c>
       <c r="F14" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="H14" s="61" t="s">
         <v>225</v>
       </c>
-      <c r="G14" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="H14" s="61" t="s">
+      <c r="I14" s="61" t="s">
+        <v>278</v>
+      </c>
+      <c r="J14" s="61" t="s">
         <v>226</v>
       </c>
-      <c r="I14" s="61" t="s">
-        <v>279</v>
-      </c>
-      <c r="J14" s="61" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="61" t="s">
+        <v>412</v>
+      </c>
+      <c r="L14" s="61" t="s">
+        <v>410</v>
+      </c>
+      <c r="M14" s="61" t="s">
+        <v>406</v>
+      </c>
+      <c r="N14" s="61" t="s">
+        <v>422</v>
+      </c>
+      <c r="O14" s="61" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>78</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C15" s="46" t="s">
         <v>68</v>
@@ -2868,27 +3338,42 @@
         <v>146</v>
       </c>
       <c r="F15" s="60" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G15" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="H15" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="H15" s="60" t="s">
+      <c r="I15" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="J15" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="I15" s="60" t="s">
-        <v>231</v>
-      </c>
-      <c r="J15" s="60" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="60" t="s">
+        <v>412</v>
+      </c>
+      <c r="L15" s="60" t="s">
+        <v>410</v>
+      </c>
+      <c r="M15" s="60" t="s">
+        <v>406</v>
+      </c>
+      <c r="N15" s="60" t="s">
+        <v>422</v>
+      </c>
+      <c r="O15" s="60" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>79</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C16" s="49" t="s">
         <v>76</v>
@@ -2900,59 +3385,89 @@
         <v>153</v>
       </c>
       <c r="F16" s="63" t="s">
+        <v>233</v>
+      </c>
+      <c r="G16" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="H16" s="63" t="s">
         <v>234</v>
       </c>
-      <c r="G16" s="63" t="s">
-        <v>233</v>
-      </c>
-      <c r="H16" s="63" t="s">
+      <c r="I16" s="63" t="s">
         <v>235</v>
       </c>
-      <c r="I16" s="63" t="s">
+      <c r="J16" s="63" t="s">
         <v>236</v>
       </c>
-      <c r="J16" s="63" t="s">
+      <c r="K16" s="63" t="s">
+        <v>414</v>
+      </c>
+      <c r="L16" s="63" t="s">
+        <v>413</v>
+      </c>
+      <c r="M16" s="63" t="s">
+        <v>406</v>
+      </c>
+      <c r="N16" s="63" t="s">
+        <v>429</v>
+      </c>
+      <c r="O16" s="63" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="134" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="134" t="s">
+        <v>387</v>
+      </c>
+      <c r="C17" s="134" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" s="62" t="s">
+        <v>238</v>
+      </c>
+      <c r="G17" s="62" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="77" t="s">
-        <v>388</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="F17" s="64" t="s">
+      <c r="H17" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="G17" s="64" t="s">
-        <v>238</v>
-      </c>
-      <c r="H17" s="64" t="s">
+      <c r="I17" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="J17" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="I17" s="64" t="s">
-        <v>242</v>
-      </c>
-      <c r="J17" s="64" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="62" t="s">
+        <v>414</v>
+      </c>
+      <c r="L17" s="62" t="s">
+        <v>413</v>
+      </c>
+      <c r="M17" s="62" t="s">
+        <v>406</v>
+      </c>
+      <c r="N17" s="62" t="s">
+        <v>429</v>
+      </c>
+      <c r="O17" s="62" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>82</v>
       </c>
       <c r="B18" s="73" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C18" s="46" t="s">
         <v>68</v>
@@ -2964,27 +3479,42 @@
         <v>147</v>
       </c>
       <c r="F18" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="G18" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="H18" s="60" t="s">
         <v>244</v>
       </c>
-      <c r="G18" s="60" t="s">
-        <v>243</v>
-      </c>
-      <c r="H18" s="60" t="s">
+      <c r="I18" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="J18" s="60" t="s">
         <v>245</v>
       </c>
-      <c r="I18" s="60" t="s">
-        <v>247</v>
-      </c>
-      <c r="J18" s="60" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" s="60" t="s">
+        <v>412</v>
+      </c>
+      <c r="L18" s="60" t="s">
+        <v>410</v>
+      </c>
+      <c r="M18" s="60" t="s">
+        <v>406</v>
+      </c>
+      <c r="N18" s="60" t="s">
+        <v>422</v>
+      </c>
+      <c r="O18" s="60" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>83</v>
       </c>
       <c r="B19" s="74" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C19" s="47" t="s">
         <v>70</v>
@@ -2996,27 +3526,42 @@
         <v>147</v>
       </c>
       <c r="F19" s="61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G19" s="61" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H19" s="61" t="s">
+        <v>247</v>
+      </c>
+      <c r="I19" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="J19" s="61" t="s">
         <v>248</v>
       </c>
-      <c r="I19" s="61" t="s">
-        <v>250</v>
-      </c>
-      <c r="J19" s="61" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" s="61" t="s">
+        <v>412</v>
+      </c>
+      <c r="L19" s="61" t="s">
+        <v>410</v>
+      </c>
+      <c r="M19" s="61" t="s">
+        <v>406</v>
+      </c>
+      <c r="N19" s="61" t="s">
+        <v>422</v>
+      </c>
+      <c r="O19" s="61" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="74" t="s">
-        <v>388</v>
+      <c r="B20" s="50" t="s">
+        <v>387</v>
       </c>
       <c r="C20" s="50" t="s">
         <v>81</v>
@@ -3028,27 +3573,42 @@
         <v>160</v>
       </c>
       <c r="F20" s="64" t="s">
+        <v>251</v>
+      </c>
+      <c r="G20" s="64" t="s">
+        <v>250</v>
+      </c>
+      <c r="H20" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="G20" s="64" t="s">
-        <v>251</v>
-      </c>
-      <c r="H20" s="64" t="s">
+      <c r="I20" s="64" t="s">
+        <v>254</v>
+      </c>
+      <c r="J20" s="64" t="s">
         <v>253</v>
       </c>
-      <c r="I20" s="64" t="s">
-        <v>255</v>
-      </c>
-      <c r="J20" s="64" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="L20" s="64" t="s">
+        <v>415</v>
+      </c>
+      <c r="M20" s="64" t="s">
+        <v>416</v>
+      </c>
+      <c r="N20" s="64" t="s">
+        <v>427</v>
+      </c>
+      <c r="O20" s="64" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="74" t="s">
-        <v>388</v>
+      <c r="B21" s="51" t="s">
+        <v>387</v>
       </c>
       <c r="C21" s="51" t="s">
         <v>86</v>
@@ -3060,27 +3620,42 @@
         <v>161</v>
       </c>
       <c r="F21" s="65" t="s">
+        <v>256</v>
+      </c>
+      <c r="G21" s="65" t="s">
+        <v>255</v>
+      </c>
+      <c r="H21" s="65" t="s">
+        <v>252</v>
+      </c>
+      <c r="I21" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="J21" s="65" t="s">
         <v>257</v>
       </c>
-      <c r="G21" s="65" t="s">
-        <v>256</v>
-      </c>
-      <c r="H21" s="65" t="s">
-        <v>253</v>
-      </c>
-      <c r="I21" s="65" t="s">
-        <v>259</v>
-      </c>
-      <c r="J21" s="65" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="L21" s="65" t="s">
+        <v>415</v>
+      </c>
+      <c r="M21" s="65" t="s">
+        <v>416</v>
+      </c>
+      <c r="N21" s="65" t="s">
+        <v>425</v>
+      </c>
+      <c r="O21" s="65" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="74" t="s">
-        <v>388</v>
+      <c r="B22" s="52" t="s">
+        <v>387</v>
       </c>
       <c r="C22" s="52" t="s">
         <v>88</v>
@@ -3092,27 +3667,42 @@
         <v>162</v>
       </c>
       <c r="F22" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="G22" s="66" t="s">
         <v>260</v>
       </c>
-      <c r="G22" s="66" t="s">
+      <c r="H22" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="H22" s="66" t="s">
+      <c r="I22" s="66" t="s">
         <v>262</v>
       </c>
-      <c r="I22" s="66" t="s">
+      <c r="J22" s="66" t="s">
         <v>263</v>
       </c>
-      <c r="J22" s="66" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="66" t="s">
+        <v>419</v>
+      </c>
+      <c r="L22" s="66" t="s">
+        <v>418</v>
+      </c>
+      <c r="M22" s="66" t="s">
+        <v>416</v>
+      </c>
+      <c r="N22" s="66" t="s">
+        <v>427</v>
+      </c>
+      <c r="O22" s="66" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B23" s="74" t="s">
-        <v>388</v>
+      <c r="B23" s="53" t="s">
+        <v>387</v>
       </c>
       <c r="C23" s="53" t="s">
         <v>90</v>
@@ -3124,27 +3714,42 @@
         <v>156</v>
       </c>
       <c r="F23" s="67" t="s">
+        <v>265</v>
+      </c>
+      <c r="G23" s="67" t="s">
+        <v>264</v>
+      </c>
+      <c r="H23" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="I23" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="J23" s="67" t="s">
         <v>266</v>
       </c>
-      <c r="G23" s="67" t="s">
-        <v>265</v>
-      </c>
-      <c r="H23" s="67" t="s">
-        <v>262</v>
-      </c>
-      <c r="I23" s="67" t="s">
-        <v>268</v>
-      </c>
-      <c r="J23" s="67" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="67" t="s">
+        <v>419</v>
+      </c>
+      <c r="L23" s="67" t="s">
+        <v>418</v>
+      </c>
+      <c r="M23" s="67" t="s">
+        <v>416</v>
+      </c>
+      <c r="N23" s="67" t="s">
+        <v>427</v>
+      </c>
+      <c r="O23" s="67" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="74" t="s">
-        <v>388</v>
+      <c r="B24" s="50" t="s">
+        <v>387</v>
       </c>
       <c r="C24" s="50" t="s">
         <v>81</v>
@@ -3156,27 +3761,42 @@
         <v>163</v>
       </c>
       <c r="F24" s="64" t="s">
+        <v>269</v>
+      </c>
+      <c r="G24" s="64" t="s">
+        <v>268</v>
+      </c>
+      <c r="H24" s="64" t="s">
         <v>270</v>
       </c>
-      <c r="G24" s="64" t="s">
-        <v>269</v>
-      </c>
-      <c r="H24" s="64" t="s">
+      <c r="I24" s="64" t="s">
+        <v>272</v>
+      </c>
+      <c r="J24" s="64" t="s">
         <v>271</v>
       </c>
-      <c r="I24" s="64" t="s">
-        <v>273</v>
-      </c>
-      <c r="J24" s="64" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="L24" s="64" t="s">
+        <v>415</v>
+      </c>
+      <c r="M24" s="64" t="s">
+        <v>416</v>
+      </c>
+      <c r="N24" s="64" t="s">
+        <v>427</v>
+      </c>
+      <c r="O24" s="64" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="74" t="s">
-        <v>388</v>
+      <c r="B25" s="51" t="s">
+        <v>387</v>
       </c>
       <c r="C25" s="51" t="s">
         <v>86</v>
@@ -3188,27 +3808,42 @@
         <v>154</v>
       </c>
       <c r="F25" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="G25" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="G25" s="65" t="s">
+      <c r="H25" s="65" t="s">
         <v>275</v>
       </c>
-      <c r="H25" s="65" t="s">
+      <c r="I25" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="J25" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="I25" s="65" t="s">
-        <v>278</v>
-      </c>
-      <c r="J25" s="65" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="L25" s="65" t="s">
+        <v>415</v>
+      </c>
+      <c r="M25" s="65" t="s">
+        <v>416</v>
+      </c>
+      <c r="N25" s="65" t="s">
+        <v>425</v>
+      </c>
+      <c r="O25" s="65" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="74" t="s">
-        <v>388</v>
+      <c r="B26" s="50" t="s">
+        <v>387</v>
       </c>
       <c r="C26" s="50" t="s">
         <v>81</v>
@@ -3220,27 +3855,42 @@
         <v>159</v>
       </c>
       <c r="F26" s="64" t="s">
+        <v>251</v>
+      </c>
+      <c r="G26" s="64" t="s">
+        <v>250</v>
+      </c>
+      <c r="H26" s="64" t="s">
         <v>252</v>
       </c>
-      <c r="G26" s="64" t="s">
-        <v>251</v>
-      </c>
-      <c r="H26" s="64" t="s">
+      <c r="I26" s="64" t="s">
+        <v>254</v>
+      </c>
+      <c r="J26" s="64" t="s">
         <v>253</v>
       </c>
-      <c r="I26" s="64" t="s">
-        <v>255</v>
-      </c>
-      <c r="J26" s="64" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" s="64" t="s">
+        <v>417</v>
+      </c>
+      <c r="L26" s="64" t="s">
+        <v>415</v>
+      </c>
+      <c r="M26" s="64" t="s">
+        <v>416</v>
+      </c>
+      <c r="N26" s="64" t="s">
+        <v>427</v>
+      </c>
+      <c r="O26" s="64" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="74" t="s">
-        <v>388</v>
+      <c r="B27" s="51" t="s">
+        <v>387</v>
       </c>
       <c r="C27" s="51" t="s">
         <v>86</v>
@@ -3252,27 +3902,42 @@
         <v>158</v>
       </c>
       <c r="F27" s="65" t="s">
+        <v>256</v>
+      </c>
+      <c r="G27" s="65" t="s">
+        <v>255</v>
+      </c>
+      <c r="H27" s="65" t="s">
+        <v>252</v>
+      </c>
+      <c r="I27" s="65" t="s">
+        <v>258</v>
+      </c>
+      <c r="J27" s="65" t="s">
         <v>257</v>
       </c>
-      <c r="G27" s="65" t="s">
-        <v>256</v>
-      </c>
-      <c r="H27" s="65" t="s">
-        <v>253</v>
-      </c>
-      <c r="I27" s="65" t="s">
-        <v>259</v>
-      </c>
-      <c r="J27" s="65" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="L27" s="65" t="s">
+        <v>415</v>
+      </c>
+      <c r="M27" s="65" t="s">
+        <v>416</v>
+      </c>
+      <c r="N27" s="65" t="s">
+        <v>425</v>
+      </c>
+      <c r="O27" s="65" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="74" t="s">
-        <v>388</v>
+      <c r="B28" s="52" t="s">
+        <v>387</v>
       </c>
       <c r="C28" s="52" t="s">
         <v>88</v>
@@ -3284,27 +3949,42 @@
         <v>157</v>
       </c>
       <c r="F28" s="66" t="s">
+        <v>259</v>
+      </c>
+      <c r="G28" s="66" t="s">
         <v>260</v>
       </c>
-      <c r="G28" s="66" t="s">
+      <c r="H28" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="H28" s="66" t="s">
+      <c r="I28" s="66" t="s">
         <v>262</v>
       </c>
-      <c r="I28" s="66" t="s">
+      <c r="J28" s="66" t="s">
         <v>263</v>
       </c>
-      <c r="J28" s="66" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="66" t="s">
+        <v>419</v>
+      </c>
+      <c r="L28" s="66" t="s">
+        <v>418</v>
+      </c>
+      <c r="M28" s="66" t="s">
+        <v>416</v>
+      </c>
+      <c r="N28" s="66" t="s">
+        <v>427</v>
+      </c>
+      <c r="O28" s="66" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="74" t="s">
-        <v>388</v>
+      <c r="B29" s="53" t="s">
+        <v>387</v>
       </c>
       <c r="C29" s="53" t="s">
         <v>90</v>
@@ -3316,19 +3996,34 @@
         <v>155</v>
       </c>
       <c r="F29" s="67" t="s">
+        <v>265</v>
+      </c>
+      <c r="G29" s="67" t="s">
+        <v>264</v>
+      </c>
+      <c r="H29" s="67" t="s">
+        <v>261</v>
+      </c>
+      <c r="I29" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="J29" s="67" t="s">
         <v>266</v>
       </c>
-      <c r="G29" s="67" t="s">
-        <v>265</v>
-      </c>
-      <c r="H29" s="67" t="s">
-        <v>262</v>
-      </c>
-      <c r="I29" s="67" t="s">
-        <v>268</v>
-      </c>
-      <c r="J29" s="67" t="s">
-        <v>267</v>
+      <c r="K29" s="67" t="s">
+        <v>419</v>
+      </c>
+      <c r="L29" s="67" t="s">
+        <v>418</v>
+      </c>
+      <c r="M29" s="67" t="s">
+        <v>416</v>
+      </c>
+      <c r="N29" s="67" t="s">
+        <v>427</v>
+      </c>
+      <c r="O29" s="67" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -3342,21 +4037,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
@@ -3367,357 +4064,513 @@
         <v>168</v>
       </c>
       <c r="D1" s="55" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>431</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="84" t="s">
+        <v>336</v>
+      </c>
+      <c r="E2" s="84" t="s">
+        <v>432</v>
+      </c>
+      <c r="F2" s="84" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="81" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="82">
+        <v>1.5</v>
+      </c>
+      <c r="E3" s="82" t="s">
+        <v>442</v>
+      </c>
+      <c r="F3" s="82" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="107" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="108" t="s">
+        <v>388</v>
+      </c>
+      <c r="D4" s="108" t="s">
+        <v>329</v>
+      </c>
+      <c r="E4" s="108" t="s">
+        <v>433</v>
+      </c>
+      <c r="F4" s="108" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="144" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="144" t="s">
+        <v>389</v>
+      </c>
+      <c r="D5" s="144" t="s">
+        <v>330</v>
+      </c>
+      <c r="E5" s="144" t="s">
+        <v>433</v>
+      </c>
+      <c r="F5" s="145" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="135" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="136" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="136" t="s">
+        <v>390</v>
+      </c>
+      <c r="D6" s="136" t="s">
+        <v>331</v>
+      </c>
+      <c r="E6" s="136" t="s">
+        <v>438</v>
+      </c>
+      <c r="F6" s="136" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="138" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="136" t="s">
+        <v>390</v>
+      </c>
+      <c r="D7" s="138" t="s">
+        <v>332</v>
+      </c>
+      <c r="E7" s="136" t="s">
+        <v>438</v>
+      </c>
+      <c r="F7" s="136" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="139" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="140" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="140" t="s">
+        <v>391</v>
+      </c>
+      <c r="D8" s="140" t="s">
+        <v>333</v>
+      </c>
+      <c r="E8" s="140" t="s">
+        <v>436</v>
+      </c>
+      <c r="F8" s="140" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="141" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="142" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="140" t="s">
+        <v>391</v>
+      </c>
+      <c r="D9" s="142" t="s">
+        <v>334</v>
+      </c>
+      <c r="E9" s="140" t="s">
+        <v>436</v>
+      </c>
+      <c r="F9" s="140" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="146" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="147" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="147" t="s">
+        <v>392</v>
+      </c>
+      <c r="D10" s="147" t="s">
+        <v>335</v>
+      </c>
+      <c r="E10" s="147" t="s">
+        <v>437</v>
+      </c>
+      <c r="F10" s="147" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="110" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="110" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="110" t="s">
+        <v>323</v>
+      </c>
+      <c r="E11" s="110" t="s">
+        <v>436</v>
+      </c>
+      <c r="F11" s="110" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="86" t="s">
+        <v>324</v>
+      </c>
+      <c r="E12" s="110" t="s">
+        <v>436</v>
+      </c>
+      <c r="F12" s="86" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="110" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="110" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="110" t="s">
+        <v>325</v>
+      </c>
+      <c r="E13" s="110" t="s">
+        <v>437</v>
+      </c>
+      <c r="F13" s="110" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="86" t="s">
+        <v>326</v>
+      </c>
+      <c r="E14" s="110" t="s">
+        <v>437</v>
+      </c>
+      <c r="F14" s="86" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="111" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="112" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="112" t="s">
+        <v>323</v>
+      </c>
+      <c r="E15" s="112" t="s">
+        <v>440</v>
+      </c>
+      <c r="F15" s="112" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="113" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="114" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="114" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="114" t="s">
+        <v>324</v>
+      </c>
+      <c r="E16" s="112" t="s">
+        <v>440</v>
+      </c>
+      <c r="F16" s="114" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="112" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="112" t="s">
+        <v>325</v>
+      </c>
+      <c r="E17" s="112" t="s">
+        <v>441</v>
+      </c>
+      <c r="F17" s="112" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="113" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="114" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="114" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="114" t="s">
+        <v>326</v>
+      </c>
+      <c r="E18" s="114" t="s">
+        <v>441</v>
+      </c>
+      <c r="F18" s="114" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="110" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="110" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="110" t="s">
+        <v>327</v>
+      </c>
+      <c r="E19" s="110" t="s">
+        <v>440</v>
+      </c>
+      <c r="F19" s="110" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="86" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="86" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="86" t="s">
+        <v>328</v>
+      </c>
+      <c r="E20" s="86" t="s">
+        <v>440</v>
+      </c>
+      <c r="F20" s="110" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="111" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="112" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="112" t="s">
+        <v>327</v>
+      </c>
+      <c r="E21" s="112" t="s">
+        <v>440</v>
+      </c>
+      <c r="F21" s="114" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="113" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="114" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="114" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="114" t="s">
+        <v>328</v>
+      </c>
+      <c r="E22" s="114" t="s">
+        <v>440</v>
+      </c>
+      <c r="F22" s="114" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="78" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="83" t="s">
+      <c r="E23" s="78" t="s">
+        <v>432</v>
+      </c>
+      <c r="F23" s="78" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="83">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="108" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="109" t="s">
+      <c r="C24" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="80" t="s">
+        <v>338</v>
+      </c>
+      <c r="E24" s="80" t="s">
+        <v>432</v>
+      </c>
+      <c r="F24" s="80" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="111" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="109" t="s">
-        <v>389</v>
-      </c>
-      <c r="D4" s="109" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="110" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="111" t="s">
+      <c r="C25" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="112" t="s">
+        <v>337</v>
+      </c>
+      <c r="E25" s="112" t="s">
+        <v>432</v>
+      </c>
+      <c r="F25" s="112" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="113" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="111" t="s">
-        <v>390</v>
-      </c>
-      <c r="D5" s="111" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="108" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="109" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="109" t="s">
-        <v>391</v>
-      </c>
-      <c r="D6" s="109" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="110" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="111" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="109" t="s">
-        <v>391</v>
-      </c>
-      <c r="D7" s="111" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="108" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="109" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="109" t="s">
-        <v>392</v>
-      </c>
-      <c r="D8" s="109" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="110" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="111" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="109" t="s">
-        <v>392</v>
-      </c>
-      <c r="D9" s="111" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="108" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="109" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="109" t="s">
-        <v>393</v>
-      </c>
-      <c r="D10" s="109" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="112" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="113" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="113" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="113" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="87" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="112" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="113" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="113" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="113" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="86" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="87" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="114" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="115" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="115" t="s">
+      <c r="C26" s="114" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="115" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="116" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="117" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="117" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="117" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="114" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="115" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="115" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="115" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="116" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="117" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="117" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="117" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="112" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="113" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="113" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="113" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="87" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="114" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="115" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="115" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="115" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="116" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="117" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="117" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="117" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="79" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="79" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="79" t="s">
+      <c r="D26" s="114" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="80" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="81" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="81" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="81" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="114" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="115" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="115" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="115" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="116" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="117" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="117" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="117" t="s">
-        <v>339</v>
+      <c r="E26" s="114" t="s">
+        <v>432</v>
+      </c>
+      <c r="F26" s="114" t="s">
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -3731,21 +4584,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="9" max="9" width="35.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>171</v>
       </c>
@@ -3753,7 +4608,7 @@
         <v>172</v>
       </c>
       <c r="C1" t="s">
-        <v>181</v>
+        <v>279</v>
       </c>
       <c r="D1" t="s">
         <v>280</v>
@@ -3765,400 +4620,613 @@
         <v>282</v>
       </c>
       <c r="G1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+      <c r="H1" t="s">
+        <v>402</v>
+      </c>
+      <c r="I1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>284</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="7" t="s">
         <v>285</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="J2" s="35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>406</v>
+      </c>
+      <c r="I3" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="J3" s="35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="105" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="106" t="s">
         <v>291</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="107" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="106"/>
       <c r="D4" s="106" t="s">
         <v>292</v>
       </c>
-      <c r="E4" s="107" t="s">
+      <c r="E4" s="105" t="s">
         <v>293</v>
       </c>
-      <c r="F4" s="106" t="s">
+      <c r="F4" s="105" t="s">
         <v>294</v>
       </c>
       <c r="G4" s="106" t="s">
+        <v>446</v>
+      </c>
+      <c r="H4" s="106" t="s">
+        <v>406</v>
+      </c>
+      <c r="I4" s="106" t="s">
+        <v>450</v>
+      </c>
+      <c r="J4" s="106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="106" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="107" t="s">
+      <c r="D5" s="106" t="s">
+        <v>298</v>
+      </c>
+      <c r="E5" s="105" t="s">
+        <v>296</v>
+      </c>
+      <c r="F5" s="105" t="s">
+        <v>297</v>
+      </c>
+      <c r="G5" s="106" t="s">
+        <v>446</v>
+      </c>
+      <c r="H5" s="106" t="s">
+        <v>406</v>
+      </c>
+      <c r="I5" s="106" t="s">
+        <v>450</v>
+      </c>
+      <c r="J5" s="106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106" t="s">
-        <v>296</v>
-      </c>
-      <c r="E5" s="107" t="s">
-        <v>299</v>
-      </c>
-      <c r="F5" s="106" t="s">
-        <v>297</v>
-      </c>
-      <c r="G5" s="106" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="106" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="107" t="s">
+      <c r="C6" s="106">
+        <v>3</v>
+      </c>
+      <c r="D6" s="106"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105" t="s">
+        <v>396</v>
+      </c>
+      <c r="G6" s="106" t="s">
+        <v>446</v>
+      </c>
+      <c r="H6" s="106" t="s">
+        <v>406</v>
+      </c>
+      <c r="I6" s="106" t="s">
+        <v>450</v>
+      </c>
+      <c r="J6" s="106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="138">
+      <c r="C7" s="106">
         <v>3</v>
       </c>
-      <c r="E6" s="107"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="106" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="107" t="s">
+      <c r="D7" s="106"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105" t="s">
+        <v>396</v>
+      </c>
+      <c r="G7" s="106" t="s">
+        <v>446</v>
+      </c>
+      <c r="H7" s="106" t="s">
+        <v>406</v>
+      </c>
+      <c r="I7" s="106" t="s">
+        <v>450</v>
+      </c>
+      <c r="J7" s="106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="105" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="138">
-        <v>3</v>
-      </c>
-      <c r="E7" s="107"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="106" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="107" t="s">
+      <c r="C8" s="106">
+        <v>1.5</v>
+      </c>
+      <c r="D8" s="106"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105" t="s">
+        <v>396</v>
+      </c>
+      <c r="G8" s="106" t="s">
+        <v>446</v>
+      </c>
+      <c r="H8" s="106" t="s">
+        <v>406</v>
+      </c>
+      <c r="I8" s="106" t="s">
+        <v>450</v>
+      </c>
+      <c r="J8" s="106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="138">
+      <c r="C9" s="106">
         <v>1.5</v>
       </c>
-      <c r="E8" s="107"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="106" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="106" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="107" t="s">
+      <c r="D9" s="106"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105" t="s">
+        <v>396</v>
+      </c>
+      <c r="G9" s="106" t="s">
+        <v>446</v>
+      </c>
+      <c r="H9" s="106" t="s">
+        <v>406</v>
+      </c>
+      <c r="I9" s="106" t="s">
+        <v>450</v>
+      </c>
+      <c r="J9" s="106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="106"/>
-      <c r="D9" s="138">
+      <c r="C10" s="106">
         <v>1.5</v>
       </c>
-      <c r="E9" s="107"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="106" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="106" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="107" t="s">
+      <c r="D10" s="106"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105" t="s">
+        <v>396</v>
+      </c>
+      <c r="G10" s="106" t="s">
+        <v>446</v>
+      </c>
+      <c r="H10" s="106" t="s">
+        <v>406</v>
+      </c>
+      <c r="I10" s="106" t="s">
+        <v>450</v>
+      </c>
+      <c r="J10" s="106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="138">
+      <c r="C11" s="106">
         <v>1.5</v>
       </c>
-      <c r="E10" s="107"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="106" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="107" t="s">
+      <c r="D11" s="106"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105" t="s">
+        <v>396</v>
+      </c>
+      <c r="G11" s="106" t="s">
+        <v>446</v>
+      </c>
+      <c r="H11" s="106" t="s">
+        <v>406</v>
+      </c>
+      <c r="I11" s="106" t="s">
+        <v>450</v>
+      </c>
+      <c r="J11" s="106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="105" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="138">
-        <v>1.5</v>
-      </c>
-      <c r="E11" s="107"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="106" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="107" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="106"/>
+      <c r="C12" s="106" t="s">
+        <v>315</v>
+      </c>
       <c r="D12" s="106" t="s">
         <v>316</v>
       </c>
-      <c r="E12" s="107" t="s">
+      <c r="E12" s="105" t="s">
         <v>317</v>
       </c>
-      <c r="F12" s="106" t="s">
+      <c r="F12" s="105" t="s">
         <v>318</v>
       </c>
       <c r="G12" s="106" t="s">
+        <v>445</v>
+      </c>
+      <c r="H12" s="106" t="s">
+        <v>416</v>
+      </c>
+      <c r="I12" s="106" t="s">
+        <v>429</v>
+      </c>
+      <c r="J12" s="106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="106" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="106" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="107" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="106"/>
       <c r="D13" s="106" t="s">
         <v>320</v>
       </c>
-      <c r="E13" s="107" t="s">
+      <c r="E13" s="105" t="s">
         <v>321</v>
       </c>
-      <c r="F13" s="106" t="s">
+      <c r="F13" s="105" t="s">
         <v>322</v>
       </c>
       <c r="G13" s="106" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="106" t="s">
+        <v>445</v>
+      </c>
+      <c r="H13" s="106" t="s">
+        <v>416</v>
+      </c>
+      <c r="I13" s="106" t="s">
+        <v>429</v>
+      </c>
+      <c r="J13" s="106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="107" t="s">
+      <c r="B14" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="106"/>
+      <c r="C14" s="106" t="s">
+        <v>315</v>
+      </c>
       <c r="D14" s="106" t="s">
         <v>316</v>
       </c>
-      <c r="E14" s="107" t="s">
+      <c r="E14" s="105" t="s">
         <v>317</v>
       </c>
-      <c r="F14" s="106" t="s">
+      <c r="F14" s="105" t="s">
         <v>318</v>
       </c>
       <c r="G14" s="106" t="s">
+        <v>445</v>
+      </c>
+      <c r="H14" s="106" t="s">
+        <v>416</v>
+      </c>
+      <c r="I14" s="106" t="s">
+        <v>429</v>
+      </c>
+      <c r="J14" s="106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="105" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="106" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="106" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="107" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="106"/>
       <c r="D15" s="106" t="s">
         <v>320</v>
       </c>
-      <c r="E15" s="107" t="s">
+      <c r="E15" s="105" t="s">
         <v>321</v>
       </c>
-      <c r="F15" s="106" t="s">
+      <c r="F15" s="105" t="s">
         <v>322</v>
       </c>
       <c r="G15" s="106" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="95" t="s">
+        <v>445</v>
+      </c>
+      <c r="H15" s="106" t="s">
+        <v>416</v>
+      </c>
+      <c r="I15" s="106" t="s">
+        <v>429</v>
+      </c>
+      <c r="J15" s="106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="95"/>
+      <c r="C16" s="95" t="s">
+        <v>299</v>
+      </c>
       <c r="D16" s="95" t="s">
+        <v>301</v>
+      </c>
+      <c r="E16" s="94" t="s">
         <v>300</v>
       </c>
-      <c r="E16" s="96" t="s">
+      <c r="F16" s="94" t="s">
         <v>302</v>
       </c>
-      <c r="F16" s="95" t="s">
-        <v>301</v>
-      </c>
       <c r="G16" s="95" t="s">
+        <v>447</v>
+      </c>
+      <c r="H16" s="95" t="s">
+        <v>406</v>
+      </c>
+      <c r="I16" s="95" t="s">
+        <v>451</v>
+      </c>
+      <c r="J16" s="95"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="94" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="95" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="95" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="95"/>
       <c r="D17" s="95" t="s">
         <v>304</v>
       </c>
-      <c r="E17" s="96" t="s">
+      <c r="E17" s="94" t="s">
         <v>305</v>
       </c>
-      <c r="F17" s="95" t="s">
+      <c r="F17" s="94" t="s">
         <v>306</v>
       </c>
       <c r="G17" s="95" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+      <c r="H17" s="95" t="s">
+        <v>406</v>
+      </c>
+      <c r="I17" s="95" t="s">
+        <v>451</v>
+      </c>
+      <c r="J17" s="95"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>52</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23" t="s">
+      <c r="C18" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="23" t="s">
         <v>309</v>
       </c>
       <c r="F18" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="G18" s="23" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G18" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
         <v>54</v>
       </c>
       <c r="B19" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23" t="s">
+      <c r="C19" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="23" t="s">
         <v>313</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="G19" s="23" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="91" t="s">
+      <c r="G19" s="24" t="s">
+        <v>447</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="I19" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="J19" s="24"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="92" t="s">
+      <c r="B20" s="91" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="91"/>
-      <c r="D20" s="139">
+      <c r="C20" s="91">
         <v>65</v>
       </c>
-      <c r="E20" s="92" t="s">
-        <v>394</v>
-      </c>
-      <c r="F20" s="91"/>
+      <c r="D20" s="91" t="s">
+        <v>393</v>
+      </c>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90" t="s">
+        <v>398</v>
+      </c>
       <c r="G20" s="91" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+      <c r="H20" s="91" t="s">
+        <v>406</v>
+      </c>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="140">
+      <c r="C21" s="92">
         <v>65</v>
       </c>
-      <c r="E21" s="93" t="s">
-        <v>394</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="91" t="s">
-        <v>399</v>
-      </c>
+      <c r="D21" s="92" t="s">
+        <v>393</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="G21" s="92" t="s">
+        <v>448</v>
+      </c>
+      <c r="H21" s="92" t="s">
+        <v>406</v>
+      </c>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4172,14 +5240,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -4190,74 +5260,115 @@
         <v>168</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+      <c r="D1" t="s">
+        <v>452</v>
+      </c>
+      <c r="E1" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="94">
+      <c r="B2" s="93">
         <v>0.1</v>
       </c>
-      <c r="C2" s="122" t="s">
-        <v>395</v>
+      <c r="C2" s="119" t="s">
+        <v>394</v>
+      </c>
+      <c r="D2" s="119" t="s">
+        <v>453</v>
+      </c>
+      <c r="E2" s="119" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="94">
+      <c r="B3" s="93">
         <v>0.1</v>
       </c>
-      <c r="C3" s="122" t="s">
+      <c r="C3" s="119" t="s">
+        <v>394</v>
+      </c>
+      <c r="D3" s="119" t="s">
+        <v>453</v>
+      </c>
+      <c r="E3" s="119" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="94" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" s="95">
+        <v>0.15</v>
+      </c>
+      <c r="C4" s="120" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="96">
+      <c r="D4" s="120" t="s">
+        <v>454</v>
+      </c>
+      <c r="E4" s="120" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="94" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="95">
         <v>0.15</v>
       </c>
-      <c r="C4" s="123" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="95" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="96">
-        <v>0.15</v>
-      </c>
-      <c r="C5" s="123" t="s">
-        <v>396</v>
-      </c>
-      <c r="E5" s="135"/>
+      <c r="C5" s="120" t="s">
+        <v>395</v>
+      </c>
+      <c r="D5" s="120" t="s">
+        <v>454</v>
+      </c>
+      <c r="E5" s="120" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="94">
+      <c r="B6" s="93">
         <v>0.1</v>
       </c>
-      <c r="C6" s="122" t="s">
-        <v>395</v>
+      <c r="C6" s="119" t="s">
+        <v>394</v>
+      </c>
+      <c r="D6" s="119" t="s">
+        <v>453</v>
+      </c>
+      <c r="E6" s="119" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="94">
+      <c r="B7" s="93">
         <v>0.1</v>
       </c>
-      <c r="C7" s="122" t="s">
-        <v>395</v>
+      <c r="C7" s="119" t="s">
+        <v>394</v>
+      </c>
+      <c r="D7" s="119" t="s">
+        <v>453</v>
+      </c>
+      <c r="E7" s="119" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4267,8 +5378,14 @@
       <c r="B8" s="31">
         <v>68</v>
       </c>
-      <c r="C8" s="124" t="s">
-        <v>397</v>
+      <c r="C8" s="121" t="s">
+        <v>396</v>
+      </c>
+      <c r="D8" s="121" t="s">
+        <v>455</v>
+      </c>
+      <c r="E8" s="121" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4278,8 +5395,14 @@
       <c r="B9" s="31">
         <v>68</v>
       </c>
-      <c r="C9" s="124" t="s">
-        <v>397</v>
+      <c r="C9" s="121" t="s">
+        <v>396</v>
+      </c>
+      <c r="D9" s="121" t="s">
+        <v>455</v>
+      </c>
+      <c r="E9" s="121" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4290,7 +5413,13 @@
         <v>100</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>341</v>
+        <v>340</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="E10" s="63" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -4301,7 +5430,13 @@
         <v>100</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>342</v>
+        <v>341</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -4312,7 +5447,13 @@
         <v>100</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>343</v>
+        <v>342</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4323,94 +5464,148 @@
         <v>100</v>
       </c>
       <c r="C13" s="63" t="s">
+        <v>342</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>456</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="96" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="97" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122" t="s">
+        <v>456</v>
+      </c>
+      <c r="E14" s="122" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="96" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="97" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="122"/>
+      <c r="D15" s="122" t="s">
+        <v>456</v>
+      </c>
+      <c r="E15" s="122" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="99">
+        <v>30</v>
+      </c>
+      <c r="C16" s="123" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="97" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="98" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="125"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="97" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="98" t="s">
-        <v>173</v>
-      </c>
-      <c r="C15" s="125"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="99" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="100">
+      <c r="D16" s="123" t="s">
+        <v>456</v>
+      </c>
+      <c r="E16" s="123" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="98" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="99">
         <v>30</v>
       </c>
-      <c r="C16" s="126" t="s">
+      <c r="C17" s="123" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="99" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="100">
-        <v>30</v>
-      </c>
-      <c r="C17" s="126" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="123" t="s">
+        <v>456</v>
+      </c>
+      <c r="E17" s="123" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="94">
+      <c r="B18" s="93">
         <v>100</v>
       </c>
-      <c r="C18" s="122" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="119" t="s">
+        <v>345</v>
+      </c>
+      <c r="D18" s="119" t="s">
+        <v>456</v>
+      </c>
+      <c r="E18" s="119" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="94">
+      <c r="B19" s="93">
         <v>100</v>
       </c>
-      <c r="C19" s="122" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="119" t="s">
+        <v>347</v>
+      </c>
+      <c r="D19" s="119" t="s">
+        <v>456</v>
+      </c>
+      <c r="E19" s="119" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="88">
+      <c r="B20" s="87">
         <v>360</v>
       </c>
-      <c r="C20" s="127" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="124" t="s">
+        <v>346</v>
+      </c>
+      <c r="D20" s="124" t="s">
+        <v>456</v>
+      </c>
+      <c r="E20" s="124" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="88">
+      <c r="B21" s="87">
         <v>360</v>
       </c>
-      <c r="C21" s="127" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="124" t="s">
+        <v>348</v>
+      </c>
+      <c r="D21" s="124" t="s">
+        <v>456</v>
+      </c>
+      <c r="E21" s="124" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>117</v>
       </c>
@@ -4418,10 +5613,16 @@
         <v>510</v>
       </c>
       <c r="C22" s="64" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>349</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>456</v>
+      </c>
+      <c r="E22" s="64" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>118</v>
       </c>
@@ -4429,32 +5630,50 @@
         <v>510</v>
       </c>
       <c r="C23" s="64" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>456</v>
+      </c>
+      <c r="E23" s="64" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>119</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="C24" s="128" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="125" t="s">
+        <v>353</v>
+      </c>
+      <c r="D24" s="125" t="s">
+        <v>456</v>
+      </c>
+      <c r="E24" s="125" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
         <v>120</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="C25" s="128" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="125" t="s">
+        <v>354</v>
+      </c>
+      <c r="D25" s="125" t="s">
+        <v>456</v>
+      </c>
+      <c r="E25" s="125" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>121</v>
       </c>
@@ -4462,10 +5681,16 @@
         <v>150</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>456</v>
+      </c>
+      <c r="E26" s="57" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>122</v>
       </c>
@@ -4473,193 +5698,277 @@
         <v>150</v>
       </c>
       <c r="C27" s="57" t="s">
+        <v>356</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>456</v>
+      </c>
+      <c r="E27" s="57" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="126" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="89" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="90" t="s">
+      <c r="D28" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="E28" s="126" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="B29" s="89" t="s">
         <v>175</v>
       </c>
-      <c r="C28" s="129" t="s">
+      <c r="C29" s="126" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="89" t="s">
-        <v>124</v>
-      </c>
-      <c r="B29" s="90" t="s">
-        <v>175</v>
-      </c>
-      <c r="C29" s="129" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="126" t="s">
+        <v>456</v>
+      </c>
+      <c r="E29" s="126" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="40" t="s">
         <v>125</v>
       </c>
       <c r="B30" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="C30" s="130" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="127" t="s">
+        <v>359</v>
+      </c>
+      <c r="D30" s="127" t="s">
+        <v>456</v>
+      </c>
+      <c r="E30" s="127" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="40" t="s">
         <v>126</v>
       </c>
       <c r="B31" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="C31" s="130" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="127" t="s">
+        <v>360</v>
+      </c>
+      <c r="D31" s="127" t="s">
+        <v>456</v>
+      </c>
+      <c r="E31" s="127" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>127</v>
       </c>
       <c r="B32" s="22">
         <v>15</v>
       </c>
-      <c r="C32" s="131" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="128" t="s">
+        <v>339</v>
+      </c>
+      <c r="D32" s="128" t="s">
+        <v>456</v>
+      </c>
+      <c r="E32" s="128" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>128</v>
       </c>
       <c r="B33" s="22">
         <v>15</v>
       </c>
-      <c r="C33" s="131" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="128" t="s">
+        <v>364</v>
+      </c>
+      <c r="D33" s="128" t="s">
+        <v>456</v>
+      </c>
+      <c r="E33" s="128" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="28" t="s">
         <v>129</v>
       </c>
       <c r="B34" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="C34" s="132" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="129" t="s">
+        <v>396</v>
+      </c>
+      <c r="D34" s="129" t="s">
+        <v>456</v>
+      </c>
+      <c r="E34" s="129" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B35" s="101" t="s">
+      <c r="B35" s="100" t="s">
         <v>178</v>
       </c>
-      <c r="C35" s="133" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="130" t="s">
+        <v>396</v>
+      </c>
+      <c r="D35" s="130" t="s">
+        <v>456</v>
+      </c>
+      <c r="E35" s="130" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="28" t="s">
         <v>131</v>
       </c>
       <c r="B36" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="C36" s="132" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="120" t="s">
+      <c r="C36" s="129" t="s">
+        <v>363</v>
+      </c>
+      <c r="D36" s="129" t="s">
+        <v>456</v>
+      </c>
+      <c r="E36" s="129" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="117" t="s">
         <v>132</v>
       </c>
-      <c r="B37" s="121" t="s">
+      <c r="B37" s="118" t="s">
         <v>179</v>
       </c>
-      <c r="C37" s="121"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="118" t="s">
+      <c r="C37" s="118"/>
+      <c r="D37" s="148" t="s">
+        <v>459</v>
+      </c>
+      <c r="E37" s="148" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="115" t="s">
         <v>133</v>
       </c>
-      <c r="B38" s="119" t="s">
+      <c r="B38" s="116" t="s">
         <v>180</v>
       </c>
-      <c r="C38" s="119"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="116"/>
+      <c r="D38" s="149" t="s">
+        <v>460</v>
+      </c>
+      <c r="E38" s="149" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="38" t="s">
         <v>134</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C39" s="39" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="102" t="s">
+        <v>352</v>
+      </c>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="101" t="s">
         <v>135</v>
       </c>
-      <c r="B40" s="103" t="s">
+      <c r="B40" s="102" t="s">
+        <v>399</v>
+      </c>
+      <c r="C40" s="102" t="s">
+        <v>361</v>
+      </c>
+      <c r="D40" s="151"/>
+      <c r="E40" s="151"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" s="102" t="s">
+        <v>399</v>
+      </c>
+      <c r="C41" s="102" t="s">
+        <v>362</v>
+      </c>
+      <c r="D41" s="151"/>
+      <c r="E41" s="151"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="104" t="s">
         <v>400</v>
       </c>
-      <c r="C40" s="103" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="102" t="s">
-        <v>136</v>
-      </c>
-      <c r="B41" s="103" t="s">
+      <c r="C42" s="104" t="s">
+        <v>357</v>
+      </c>
+      <c r="D42" s="131"/>
+      <c r="E42" s="131"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="103" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" s="104" t="s">
         <v>400</v>
       </c>
-      <c r="C41" s="103" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="104" t="s">
-        <v>137</v>
-      </c>
-      <c r="B42" s="105" t="s">
-        <v>401</v>
-      </c>
-      <c r="C42" s="105" t="s">
+      <c r="C43" s="131" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="104" t="s">
-        <v>138</v>
-      </c>
-      <c r="B43" s="105" t="s">
-        <v>401</v>
-      </c>
-      <c r="C43" s="134" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="106" t="s">
+      <c r="D43" s="131"/>
+      <c r="E43" s="131"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="105" t="s">
         <v>139</v>
       </c>
-      <c r="B44" s="107" t="s">
-        <v>401</v>
-      </c>
-      <c r="C44" s="107" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="106" t="s">
+        <v>400</v>
+      </c>
+      <c r="C44" s="106" t="s">
+        <v>351</v>
+      </c>
+      <c r="D44" s="152"/>
+      <c r="E44" s="152"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
     </row>
   </sheetData>
@@ -4678,7 +5987,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
@@ -4691,91 +6000,91 @@
         <v>171</v>
       </c>
       <c r="B1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E1" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="136" t="s">
+      <c r="F1" s="132" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B2" s="68" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E2" t="s">
-        <v>384</v>
-      </c>
-      <c r="F2" s="136">
+        <v>383</v>
+      </c>
+      <c r="F2" s="132">
         <v>145571</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="68" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B3" s="68" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B4" s="68" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E4" t="s">
-        <v>385</v>
-      </c>
-      <c r="F4" s="137" t="s">
-        <v>380</v>
+        <v>384</v>
+      </c>
+      <c r="F4" s="133" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F5" s="137" t="s">
-        <v>383</v>
+        <v>380</v>
+      </c>
+      <c r="F5" s="133" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="68" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E6" t="s">
-        <v>386</v>
-      </c>
-      <c r="F6" s="137" t="s">
-        <v>382</v>
+        <v>385</v>
+      </c>
+      <c r="F6" s="133" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="68" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">

--- a/TP_Final/TEXTO/Rating.xlsx
+++ b/TP_Final/TEXTO/Rating.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bakaneko\Facultad\Materias\Circuitos Electrónicos II\TPS\REPO-TPS\Circuitos-2\TP_Final\TEXTO\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="11715" windowHeight="6210"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="11715" windowHeight="6210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Transistores" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="463">
   <si>
     <t>Ref.</t>
   </si>
@@ -1319,36 +1324,18 @@
     <t>16V</t>
   </si>
   <si>
-    <t>10V</t>
-  </si>
-  <si>
     <t>Electrolítico</t>
   </si>
   <si>
     <t>Cerámico</t>
   </si>
   <si>
-    <t>100VAC</t>
-  </si>
-  <si>
-    <t>50VAC</t>
-  </si>
-  <si>
-    <t>80VAC</t>
-  </si>
-  <si>
-    <t>Cerámico / Tantalio</t>
-  </si>
-  <si>
     <t>100V</t>
   </si>
   <si>
     <t>50V</t>
   </si>
   <si>
-    <t>10VAC</t>
-  </si>
-  <si>
     <t>Tensión Máxima3</t>
   </si>
   <si>
@@ -1401,12 +1388,36 @@
   </si>
   <si>
     <t>1/2</t>
+  </si>
+  <si>
+    <t>Alambre cementada</t>
+  </si>
+  <si>
+    <t>Carbón/Metal Film</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bourns vertical 25 vueltas</t>
+  </si>
+  <si>
+    <t>Bourns vertical 25 vueltas</t>
+  </si>
+  <si>
+    <t>Cerámico /Polyester</t>
+  </si>
+  <si>
+    <t>Cerámico/Polyester</t>
+  </si>
+  <si>
+    <t>35V</t>
+  </si>
+  <si>
+    <t>SyC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2069,6 +2080,16 @@
   </cellStyles>
   <dxfs count="32">
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2088,10 +2109,16 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2236,22 +2263,6 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2275,37 +2286,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:O29" totalsRowShown="0" headerRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A1:O29" totalsRowShown="0" headerRowDxfId="31">
   <autoFilter ref="A1:O29"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Referencia"/>
-    <tableColumn id="2" name="Fabricante" dataDxfId="25"/>
+    <tableColumn id="2" name="Fabricante" dataDxfId="30"/>
     <tableColumn id="3" name="Modelo"/>
-    <tableColumn id="4" name="Tipo" dataDxfId="24"/>
+    <tableColumn id="4" name="Tipo" dataDxfId="29"/>
     <tableColumn id="5" name="Función"/>
-    <tableColumn id="6" name="Corriente RMS" dataDxfId="23"/>
-    <tableColumn id="7" name="Corriente Máxima" dataDxfId="22"/>
-    <tableColumn id="8" name="Tensión Máxima" dataDxfId="21"/>
-    <tableColumn id="9" name="Potencia Media" dataDxfId="20"/>
-    <tableColumn id="10" name="Potencia Máxima" dataDxfId="19"/>
-    <tableColumn id="11" name="Rating Maximos absolutos" dataDxfId="18"/>
-    <tableColumn id="12" name="Encapsulado" dataDxfId="17"/>
-    <tableColumn id="13" name="Montaje" dataDxfId="16"/>
-    <tableColumn id="14" name="Proveedor" dataDxfId="15"/>
-    <tableColumn id="15" name="Precio" dataDxfId="14"/>
+    <tableColumn id="6" name="Corriente RMS" dataDxfId="28"/>
+    <tableColumn id="7" name="Corriente Máxima" dataDxfId="27"/>
+    <tableColumn id="8" name="Tensión Máxima" dataDxfId="26"/>
+    <tableColumn id="9" name="Potencia Media" dataDxfId="25"/>
+    <tableColumn id="10" name="Potencia Máxima" dataDxfId="24"/>
+    <tableColumn id="11" name="Rating Maximos absolutos" dataDxfId="23"/>
+    <tableColumn id="12" name="Encapsulado" dataDxfId="22"/>
+    <tableColumn id="13" name="Montaje" dataDxfId="21"/>
+    <tableColumn id="14" name="Proveedor" dataDxfId="20"/>
+    <tableColumn id="15" name="Precio" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Capacitores" displayName="Capacitores" ref="A1:F26" totalsRowShown="0" tableBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Capacitores" displayName="Capacitores" ref="A1:F26" totalsRowShown="0" tableBorderDxfId="18">
   <autoFilter ref="A1:F26"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Ref." dataDxfId="12"/>
-    <tableColumn id="2" name="Description" dataDxfId="11"/>
-    <tableColumn id="3" name="Valor" dataDxfId="10"/>
-    <tableColumn id="4" name="Tensión Máxima" dataDxfId="9"/>
+    <tableColumn id="1" name="Ref." dataDxfId="17"/>
+    <tableColumn id="2" name="Description" dataDxfId="16"/>
+    <tableColumn id="3" name="Valor" dataDxfId="15"/>
+    <tableColumn id="4" name="Tensión Máxima" dataDxfId="14"/>
     <tableColumn id="5" name="Tensión de Operación"/>
     <tableColumn id="6" name="Tensión Máxima3"/>
   </tableColumns>
@@ -2318,15 +2329,15 @@
   <autoFilter ref="A1:J21"/>
   <tableColumns count="10">
     <tableColumn id="1" name="Ref"/>
-    <tableColumn id="2" name="Modelo" dataDxfId="8"/>
-    <tableColumn id="4" name="Tensión Máxima" dataDxfId="6"/>
-    <tableColumn id="5" name="Corriente Máxima" dataDxfId="7"/>
-    <tableColumn id="6" name="Potencia Máxima" dataDxfId="31"/>
-    <tableColumn id="7" name="Potencia Promedio" dataDxfId="30"/>
-    <tableColumn id="3" name="Encapsulado" dataDxfId="5"/>
-    <tableColumn id="8" name="Montaje" dataDxfId="4"/>
-    <tableColumn id="9" name="Proveedor" dataDxfId="3"/>
-    <tableColumn id="10" name="Precio" dataDxfId="2"/>
+    <tableColumn id="2" name="Modelo" dataDxfId="13"/>
+    <tableColumn id="4" name="Tensión Máxima" dataDxfId="12"/>
+    <tableColumn id="5" name="Corriente Máxima" dataDxfId="11"/>
+    <tableColumn id="6" name="Potencia Máxima" dataDxfId="10"/>
+    <tableColumn id="7" name="Potencia Promedio" dataDxfId="9"/>
+    <tableColumn id="3" name="Encapsulado" dataDxfId="8"/>
+    <tableColumn id="8" name="Montaje" dataDxfId="7"/>
+    <tableColumn id="9" name="Proveedor" dataDxfId="6"/>
+    <tableColumn id="10" name="Precio" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2337,8 +2348,8 @@
   <autoFilter ref="A1:E44"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Ref"/>
-    <tableColumn id="2" name="Valor" dataDxfId="1"/>
-    <tableColumn id="3" name="Potencia Media" dataDxfId="0"/>
+    <tableColumn id="2" name="Valor" dataDxfId="4"/>
+    <tableColumn id="3" name="Potencia Media" dataDxfId="3"/>
     <tableColumn id="4" name="Disipación de Potencia [W]"/>
     <tableColumn id="5" name="Tecnología"/>
   </tableColumns>
@@ -2350,8 +2361,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabla7" displayName="Tabla7" ref="A1:B7" totalsRowShown="0">
   <autoFilter ref="A1:B7"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Ref" dataDxfId="29"/>
-    <tableColumn id="2" name="Potencia Promedio" dataDxfId="28"/>
+    <tableColumn id="1" name="Ref" dataDxfId="2"/>
+    <tableColumn id="2" name="Potencia Promedio" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2362,14 +2373,14 @@
   <autoFilter ref="E1:F6"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Columna1"/>
-    <tableColumn id="2" name="Columna2" dataDxfId="27"/>
+    <tableColumn id="2" name="Columna2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2411,7 +2422,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2446,7 +2457,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2657,11 +2668,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
@@ -4040,10 +4051,10 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
@@ -4070,7 +4081,7 @@
         <v>431</v>
       </c>
       <c r="F1" s="55" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -4090,7 +4101,7 @@
         <v>432</v>
       </c>
       <c r="F2" s="84" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4107,10 +4118,10 @@
         <v>1.5</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4127,10 +4138,10 @@
         <v>329</v>
       </c>
       <c r="E4" s="108" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F4" s="108" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4147,10 +4158,10 @@
         <v>330</v>
       </c>
       <c r="E5" s="144" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F5" s="145" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4167,10 +4178,10 @@
         <v>331</v>
       </c>
       <c r="E6" s="136" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F6" s="136" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4187,10 +4198,10 @@
         <v>332</v>
       </c>
       <c r="E7" s="136" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F7" s="136" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4207,10 +4218,10 @@
         <v>333</v>
       </c>
       <c r="E8" s="140" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F8" s="140" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4227,10 +4238,10 @@
         <v>334</v>
       </c>
       <c r="E9" s="140" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F9" s="140" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4247,10 +4258,10 @@
         <v>335</v>
       </c>
       <c r="E10" s="147" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F10" s="147" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4267,10 +4278,10 @@
         <v>323</v>
       </c>
       <c r="E11" s="110" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4287,10 +4298,10 @@
         <v>324</v>
       </c>
       <c r="E12" s="110" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F12" s="86" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4307,10 +4318,10 @@
         <v>325</v>
       </c>
       <c r="E13" s="110" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F13" s="110" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4327,10 +4338,10 @@
         <v>326</v>
       </c>
       <c r="E14" s="110" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F14" s="86" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4347,10 +4358,10 @@
         <v>323</v>
       </c>
       <c r="E15" s="112" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F15" s="112" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4367,10 +4378,10 @@
         <v>324</v>
       </c>
       <c r="E16" s="112" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F16" s="114" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4387,10 +4398,10 @@
         <v>325</v>
       </c>
       <c r="E17" s="112" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F17" s="112" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4407,10 +4418,10 @@
         <v>326</v>
       </c>
       <c r="E18" s="114" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="F18" s="114" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4427,10 +4438,10 @@
         <v>327</v>
       </c>
       <c r="E19" s="110" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F19" s="110" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -4447,10 +4458,10 @@
         <v>328</v>
       </c>
       <c r="E20" s="86" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F20" s="110" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -4467,10 +4478,10 @@
         <v>327</v>
       </c>
       <c r="E21" s="112" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F21" s="114" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -4487,10 +4498,10 @@
         <v>328</v>
       </c>
       <c r="E22" s="114" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="F22" s="114" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -4510,7 +4521,7 @@
         <v>432</v>
       </c>
       <c r="F23" s="78" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -4530,7 +4541,7 @@
         <v>432</v>
       </c>
       <c r="F24" s="80" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -4547,10 +4558,10 @@
         <v>337</v>
       </c>
       <c r="E25" s="112" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F25" s="112" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -4567,10 +4578,10 @@
         <v>338</v>
       </c>
       <c r="E26" s="114" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F26" s="114" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -4586,11 +4597,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
@@ -4652,13 +4663,13 @@
         <v>286</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H2" s="35" t="s">
         <v>406</v>
       </c>
       <c r="I2" s="35" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="J2" s="35">
         <v>90</v>
@@ -4684,13 +4695,13 @@
         <v>289</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="H3" s="35" t="s">
         <v>406</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="J3" s="35">
         <v>90</v>
@@ -4716,13 +4727,13 @@
         <v>294</v>
       </c>
       <c r="G4" s="106" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="H4" s="106" t="s">
         <v>406</v>
       </c>
       <c r="I4" s="106" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="J4" s="106">
         <v>4</v>
@@ -4748,13 +4759,13 @@
         <v>297</v>
       </c>
       <c r="G5" s="106" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="H5" s="106" t="s">
         <v>406</v>
       </c>
       <c r="I5" s="106" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="J5" s="106">
         <v>4</v>
@@ -4776,13 +4787,13 @@
         <v>396</v>
       </c>
       <c r="G6" s="106" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="H6" s="106" t="s">
         <v>406</v>
       </c>
       <c r="I6" s="106" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="J6" s="106">
         <v>4</v>
@@ -4804,13 +4815,13 @@
         <v>396</v>
       </c>
       <c r="G7" s="106" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="H7" s="106" t="s">
         <v>406</v>
       </c>
       <c r="I7" s="106" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="J7" s="106">
         <v>4</v>
@@ -4832,13 +4843,13 @@
         <v>396</v>
       </c>
       <c r="G8" s="106" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="H8" s="106" t="s">
         <v>406</v>
       </c>
       <c r="I8" s="106" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="J8" s="106">
         <v>4</v>
@@ -4860,13 +4871,13 @@
         <v>396</v>
       </c>
       <c r="G9" s="106" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="H9" s="106" t="s">
         <v>406</v>
       </c>
       <c r="I9" s="106" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="J9" s="106">
         <v>4</v>
@@ -4888,13 +4899,13 @@
         <v>396</v>
       </c>
       <c r="G10" s="106" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="H10" s="106" t="s">
         <v>406</v>
       </c>
       <c r="I10" s="106" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="J10" s="106">
         <v>4</v>
@@ -4916,13 +4927,13 @@
         <v>396</v>
       </c>
       <c r="G11" s="106" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="H11" s="106" t="s">
         <v>406</v>
       </c>
       <c r="I11" s="106" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="J11" s="106">
         <v>4</v>
@@ -4948,7 +4959,7 @@
         <v>318</v>
       </c>
       <c r="G12" s="106" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="H12" s="106" t="s">
         <v>416</v>
@@ -4980,7 +4991,7 @@
         <v>322</v>
       </c>
       <c r="G13" s="106" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="H13" s="106" t="s">
         <v>416</v>
@@ -5012,7 +5023,7 @@
         <v>318</v>
       </c>
       <c r="G14" s="106" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="H14" s="106" t="s">
         <v>416</v>
@@ -5044,7 +5055,7 @@
         <v>322</v>
       </c>
       <c r="G15" s="106" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="H15" s="106" t="s">
         <v>416</v>
@@ -5076,13 +5087,13 @@
         <v>302</v>
       </c>
       <c r="G16" s="95" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H16" s="95" t="s">
         <v>406</v>
       </c>
       <c r="I16" s="95" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="J16" s="95"/>
     </row>
@@ -5106,13 +5117,13 @@
         <v>306</v>
       </c>
       <c r="G17" s="95" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H17" s="95" t="s">
         <v>406</v>
       </c>
       <c r="I17" s="95" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="J17" s="95"/>
     </row>
@@ -5136,13 +5147,13 @@
         <v>310</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H18" s="24" t="s">
         <v>406</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="J18" s="24"/>
     </row>
@@ -5166,13 +5177,13 @@
         <v>314</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H19" s="24" t="s">
         <v>406</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="J19" s="24"/>
     </row>
@@ -5194,12 +5205,14 @@
         <v>398</v>
       </c>
       <c r="G20" s="91" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="H20" s="91" t="s">
         <v>406</v>
       </c>
-      <c r="I20" s="91"/>
+      <c r="I20" s="91" t="s">
+        <v>462</v>
+      </c>
       <c r="J20" s="91"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5220,12 +5233,14 @@
         <v>398</v>
       </c>
       <c r="G21" s="92" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="H21" s="92" t="s">
         <v>406</v>
       </c>
-      <c r="I21" s="92"/>
+      <c r="I21" s="92" t="s">
+        <v>462</v>
+      </c>
       <c r="J21" s="92"/>
     </row>
   </sheetData>
@@ -5240,11 +5255,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
@@ -5263,10 +5278,10 @@
         <v>181</v>
       </c>
       <c r="D1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="E1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5280,10 +5295,10 @@
         <v>394</v>
       </c>
       <c r="D2" s="119" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="E2" s="119" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5297,10 +5312,10 @@
         <v>394</v>
       </c>
       <c r="D3" s="119" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="E3" s="119" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5314,10 +5329,10 @@
         <v>395</v>
       </c>
       <c r="D4" s="120" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E4" s="120" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -5331,10 +5346,10 @@
         <v>395</v>
       </c>
       <c r="D5" s="120" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E5" s="120" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -5348,10 +5363,10 @@
         <v>394</v>
       </c>
       <c r="D6" s="119" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="E6" s="119" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -5365,10 +5380,10 @@
         <v>394</v>
       </c>
       <c r="D7" s="119" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="E7" s="119" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -5382,10 +5397,10 @@
         <v>396</v>
       </c>
       <c r="D8" s="121" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E8" s="121" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -5399,10 +5414,10 @@
         <v>396</v>
       </c>
       <c r="D9" s="121" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E9" s="121" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -5415,11 +5430,11 @@
       <c r="C10" s="63" t="s">
         <v>340</v>
       </c>
-      <c r="D10" s="63" t="s">
-        <v>456</v>
+      <c r="D10" s="121" t="s">
+        <v>449</v>
       </c>
       <c r="E10" s="63" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -5433,10 +5448,10 @@
         <v>341</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E11" s="63" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -5450,10 +5465,10 @@
         <v>342</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -5467,10 +5482,10 @@
         <v>342</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -5482,10 +5497,10 @@
       </c>
       <c r="C14" s="122"/>
       <c r="D14" s="122" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E14" s="122" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -5497,10 +5512,10 @@
       </c>
       <c r="C15" s="122"/>
       <c r="D15" s="122" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E15" s="122" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -5514,10 +5529,10 @@
         <v>343</v>
       </c>
       <c r="D16" s="123" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E16" s="123" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -5531,10 +5546,10 @@
         <v>344</v>
       </c>
       <c r="D17" s="123" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E17" s="123" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -5548,10 +5563,10 @@
         <v>345</v>
       </c>
       <c r="D18" s="119" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E18" s="119" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -5565,10 +5580,10 @@
         <v>347</v>
       </c>
       <c r="D19" s="119" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E19" s="119" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -5582,10 +5597,10 @@
         <v>346</v>
       </c>
       <c r="D20" s="124" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E20" s="124" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -5599,10 +5614,10 @@
         <v>348</v>
       </c>
       <c r="D21" s="124" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E21" s="124" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -5616,10 +5631,10 @@
         <v>349</v>
       </c>
       <c r="D22" s="64" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E22" s="64" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -5633,10 +5648,10 @@
         <v>350</v>
       </c>
       <c r="D23" s="64" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E23" s="64" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -5650,7 +5665,7 @@
         <v>353</v>
       </c>
       <c r="D24" s="125" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E24" s="125" t="s">
         <v>416</v>
@@ -5667,7 +5682,7 @@
         <v>354</v>
       </c>
       <c r="D25" s="125" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E25" s="125" t="s">
         <v>416</v>
@@ -5684,7 +5699,7 @@
         <v>355</v>
       </c>
       <c r="D26" s="57" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E26" s="57" t="s">
         <v>416</v>
@@ -5701,7 +5716,7 @@
         <v>356</v>
       </c>
       <c r="D27" s="57" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E27" s="57" t="s">
         <v>416</v>
@@ -5718,7 +5733,7 @@
         <v>357</v>
       </c>
       <c r="D28" s="126" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E28" s="126" t="s">
         <v>416</v>
@@ -5735,7 +5750,7 @@
         <v>358</v>
       </c>
       <c r="D29" s="126" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E29" s="126" t="s">
         <v>416</v>
@@ -5752,7 +5767,7 @@
         <v>359</v>
       </c>
       <c r="D30" s="127" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E30" s="127" t="s">
         <v>416</v>
@@ -5769,7 +5784,7 @@
         <v>360</v>
       </c>
       <c r="D31" s="127" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E31" s="127" t="s">
         <v>416</v>
@@ -5786,10 +5801,10 @@
         <v>339</v>
       </c>
       <c r="D32" s="128" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E32" s="128" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -5803,10 +5818,10 @@
         <v>364</v>
       </c>
       <c r="D33" s="128" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E33" s="128" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -5820,10 +5835,10 @@
         <v>396</v>
       </c>
       <c r="D34" s="129" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E34" s="129" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -5837,10 +5852,10 @@
         <v>396</v>
       </c>
       <c r="D35" s="130" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E35" s="130" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -5854,10 +5869,10 @@
         <v>363</v>
       </c>
       <c r="D36" s="129" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E36" s="129" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -5869,10 +5884,10 @@
       </c>
       <c r="C37" s="118"/>
       <c r="D37" s="148" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E37" s="148" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -5884,10 +5899,10 @@
       </c>
       <c r="C38" s="116"/>
       <c r="D38" s="149" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="E38" s="149" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -5913,8 +5928,12 @@
       <c r="C40" s="102" t="s">
         <v>361</v>
       </c>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
+      <c r="D40" s="151" t="s">
+        <v>454</v>
+      </c>
+      <c r="E40" s="151" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="101" t="s">
@@ -5926,8 +5945,12 @@
       <c r="C41" s="102" t="s">
         <v>362</v>
       </c>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
+      <c r="D41" s="151" t="s">
+        <v>454</v>
+      </c>
+      <c r="E41" s="151" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="103" t="s">
@@ -5939,8 +5962,12 @@
       <c r="C42" s="104" t="s">
         <v>357</v>
       </c>
-      <c r="D42" s="131"/>
-      <c r="E42" s="131"/>
+      <c r="D42" s="131" t="s">
+        <v>454</v>
+      </c>
+      <c r="E42" s="131" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="103" t="s">
@@ -5952,8 +5979,12 @@
       <c r="C43" s="131" t="s">
         <v>358</v>
       </c>
-      <c r="D43" s="131"/>
-      <c r="E43" s="131"/>
+      <c r="D43" s="131" t="s">
+        <v>454</v>
+      </c>
+      <c r="E43" s="131" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="105" t="s">
@@ -5965,8 +5996,12 @@
       <c r="C44" s="106" t="s">
         <v>351</v>
       </c>
-      <c r="D44" s="152"/>
-      <c r="E44" s="152"/>
+      <c r="D44" s="152" t="s">
+        <v>454</v>
+      </c>
+      <c r="E44" s="152" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
@@ -5987,7 +6022,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
